--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="7">
   <si>
     <t xml:space="preserve">subject</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">shbg_nmol_l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free_t_pmol_l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bat_nmol_l</t>
   </si>
   <si>
     <t xml:space="preserve">F</t>
@@ -148,15 +142,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G422"/>
+  <dimension ref="A1:E422"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A439" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -175,19 +169,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>0.5</v>
@@ -197,12 +185,6 @@
       </c>
       <c r="E2" s="1" t="n">
         <v>173.7</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>0.331342155499837</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0.00776493138323531</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -211,7 +193,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>0.5</v>
@@ -221,12 +203,6 @@
       </c>
       <c r="E3" s="1" t="n">
         <v>199.1</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>0.223380507351739</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>0.00523487362880815</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -235,7 +211,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>0.58</v>
@@ -245,12 +221,6 @@
       </c>
       <c r="E4" s="1" t="n">
         <v>82.13</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>0.846483049745276</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0.0198371462527263</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -259,7 +229,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>0.58</v>
@@ -269,12 +239,6 @@
       </c>
       <c r="E5" s="1" t="n">
         <v>90.46</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>0.4391547798183</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0.0102914967966115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -283,7 +247,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>0.67</v>
@@ -293,12 +257,6 @@
       </c>
       <c r="E6" s="1" t="n">
         <v>127.5</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>0.242538517149422</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0.0056838374236321</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -307,7 +265,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>0.75</v>
@@ -317,12 +275,6 @@
       </c>
       <c r="E7" s="1" t="n">
         <v>116.1</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>0.298924542956103</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>0.00700523168057998</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,7 +283,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>0.83</v>
@@ -341,12 +293,6 @@
       </c>
       <c r="E8" s="1" t="n">
         <v>206.8</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>0.155515167030313</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0.00364446413171038</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,7 +301,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>0.92</v>
@@ -365,12 +311,6 @@
       </c>
       <c r="E9" s="1" t="n">
         <v>102.5</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>0.362993447776836</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>0.00850667253703108</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -379,7 +319,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>1</v>
@@ -389,12 +329,6 @@
       </c>
       <c r="E10" s="1" t="n">
         <v>168.3</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>0.306756193455178</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>0.00718876470749308</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,7 +337,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>1</v>
@@ -413,12 +347,6 @@
       </c>
       <c r="E11" s="1" t="n">
         <v>180.3</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>0.388383295015893</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>0.00910167808754636</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,7 +355,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>1.08</v>
@@ -437,12 +365,6 @@
       </c>
       <c r="E12" s="1" t="n">
         <v>135.8</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>0.216701245441717</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>0.00507834657796025</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -451,7 +373,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>1.08</v>
@@ -461,12 +383,6 @@
       </c>
       <c r="E13" s="1" t="n">
         <v>145.3</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>0.296398646223861</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>0.00694603783976788</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,7 +391,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>1.08</v>
@@ -485,12 +401,6 @@
       </c>
       <c r="E14" s="1" t="n">
         <v>192.5</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>0.197779755466913</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>0.0046349255737681</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,7 +409,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>1.08</v>
@@ -509,12 +419,6 @@
       </c>
       <c r="E15" s="1" t="n">
         <v>204.6</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>0.346546092030305</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>0.00812123233062323</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,7 +427,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>1.17</v>
@@ -533,12 +437,6 @@
       </c>
       <c r="E16" s="1" t="n">
         <v>171</v>
-      </c>
-      <c r="F16" s="1" t="n">
-        <v>0.25721380505514</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>0.00602774960542263</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,7 +445,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>1.25</v>
@@ -557,12 +455,6 @@
       </c>
       <c r="E17" s="1" t="n">
         <v>169.8</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>0.312141209774727</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>0.007314961394286</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,7 +463,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>1.25</v>
@@ -581,12 +473,6 @@
       </c>
       <c r="E18" s="1" t="n">
         <v>117.9</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>0.353874383408194</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>0.00829296924595724</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,7 +481,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>1.25</v>
@@ -605,12 +491,6 @@
       </c>
       <c r="E19" s="1" t="n">
         <v>189.3</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>0.244018719024911</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>0.00571852563280118</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,7 +499,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>1.25</v>
@@ -629,12 +509,6 @@
       </c>
       <c r="E20" s="1" t="n">
         <v>125.7</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>0.279007899502729</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>0.00653848947095525</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,7 +517,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>1.33</v>
@@ -653,12 +527,6 @@
       </c>
       <c r="E21" s="1" t="n">
         <v>164.9</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>0.26554640691647</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>0.00622302231860772</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,7 +535,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>1.5</v>
@@ -677,12 +545,6 @@
       </c>
       <c r="E22" s="1" t="n">
         <v>191.5</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>0.292723232014851</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>0.00685990530678282</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,7 +553,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>1.5</v>
@@ -701,12 +563,6 @@
       </c>
       <c r="E23" s="1" t="n">
         <v>160.7</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>0.230855690723298</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>0.00541005292608077</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,7 +571,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>1.67</v>
@@ -725,12 +581,6 @@
       </c>
       <c r="E24" s="1" t="n">
         <v>229.5</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>0.462764051724402</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>0.0108447749512806</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,7 +589,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>1.67</v>
@@ -749,12 +599,6 @@
       </c>
       <c r="E25" s="1" t="n">
         <v>156.1</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>0.278565016878417</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>0.00652811061293335</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,7 +607,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>1.67</v>
@@ -773,12 +617,6 @@
       </c>
       <c r="E26" s="1" t="n">
         <v>130.2</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>0.325536916265391</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>0.0076288868637846</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,7 +625,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>1.75</v>
@@ -797,12 +635,6 @@
       </c>
       <c r="E27" s="1" t="n">
         <v>199</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>0.22483020113893</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>0.00526884688756013</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -811,7 +643,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>1.75</v>
@@ -821,12 +653,6 @@
       </c>
       <c r="E28" s="1" t="n">
         <v>185.9</v>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>0.238902522439719</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>0.00559862867804384</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,7 +661,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>1.83</v>
@@ -845,12 +671,6 @@
       </c>
       <c r="E29" s="1" t="n">
         <v>199.6</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <v>0.457515011646566</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>0.0107217648381521</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,7 +679,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>1.83</v>
@@ -869,12 +689,6 @@
       </c>
       <c r="E30" s="1" t="n">
         <v>199.7</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>0.331736579404702</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>0.00777417462170149</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,7 +697,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>2</v>
@@ -893,12 +707,6 @@
       </c>
       <c r="E31" s="1" t="n">
         <v>133.6</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>0.231841499029224</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>0.00543315512942399</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,7 +715,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>2.17</v>
@@ -917,12 +725,6 @@
       </c>
       <c r="E32" s="1" t="n">
         <v>111.8</v>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>0.279578489928025</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>0.00655186113353068</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,7 +733,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>2.33</v>
@@ -941,12 +743,6 @@
       </c>
       <c r="E33" s="1" t="n">
         <v>111.8</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>0.369840403487647</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>0.0086671294556453</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,7 +751,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>2.42</v>
@@ -965,12 +761,6 @@
       </c>
       <c r="E34" s="1" t="n">
         <v>172.1</v>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>2.52175940734374</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>0.0590968835025336</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,7 +769,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>2.42</v>
@@ -989,12 +779,6 @@
       </c>
       <c r="E35" s="1" t="n">
         <v>199.4</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>0.224426547758316</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>0.0052593873583362</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,7 +787,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>2.58</v>
@@ -1013,12 +797,6 @@
       </c>
       <c r="E36" s="1" t="n">
         <v>177.1</v>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>0.249388217076927</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>0.00584435865236799</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,7 +805,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>2.58</v>
@@ -1037,12 +815,6 @@
       </c>
       <c r="E37" s="1" t="n">
         <v>168</v>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>0.301487874672954</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>0.00706530280211837</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1051,7 +823,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>2.58</v>
@@ -1061,12 +833,6 @@
       </c>
       <c r="E38" s="1" t="n">
         <v>172.7</v>
-      </c>
-      <c r="F38" s="1" t="n">
-        <v>0.315687022631104</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <v>0.0073980567477463</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,7 +841,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>2.67</v>
@@ -1085,12 +851,6 @@
       </c>
       <c r="E39" s="1" t="n">
         <v>233.6</v>
-      </c>
-      <c r="F39" s="1" t="n">
-        <v>0.129569706102734</v>
-      </c>
-      <c r="G39" s="1" t="n">
-        <v>0.00303643789519015</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1099,7 +859,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>2.83</v>
@@ -1109,12 +869,6 @@
       </c>
       <c r="E40" s="1" t="n">
         <v>193.7</v>
-      </c>
-      <c r="F40" s="1" t="n">
-        <v>0.33583674849317</v>
-      </c>
-      <c r="G40" s="1" t="n">
-        <v>0.00787026119294865</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,7 +877,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>2.83</v>
@@ -1133,12 +887,6 @@
       </c>
       <c r="E41" s="1" t="n">
         <v>188.9</v>
-      </c>
-      <c r="F41" s="1" t="n">
-        <v>0.440514923636236</v>
-      </c>
-      <c r="G41" s="1" t="n">
-        <v>0.0103233714713014</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,7 +895,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>2.83</v>
@@ -1157,12 +905,6 @@
       </c>
       <c r="E42" s="1" t="n">
         <v>164.9</v>
-      </c>
-      <c r="F42" s="1" t="n">
-        <v>0.356391614863593</v>
-      </c>
-      <c r="G42" s="1" t="n">
-        <v>0.00835196001789029</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,7 +913,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>3</v>
@@ -1181,12 +923,6 @@
       </c>
       <c r="E43" s="1" t="n">
         <v>175.8</v>
-      </c>
-      <c r="F43" s="1" t="n">
-        <v>0.677997864711907</v>
-      </c>
-      <c r="G43" s="1" t="n">
-        <v>0.0158887325686834</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,7 +931,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>3</v>
@@ -1205,12 +941,6 @@
       </c>
       <c r="E44" s="1" t="n">
         <v>119.9</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <v>1.29907113706695</v>
-      </c>
-      <c r="G44" s="1" t="n">
-        <v>0.0304434496903951</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1219,7 +949,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>3</v>
@@ -1229,12 +959,6 @@
       </c>
       <c r="E45" s="1" t="n">
         <v>189.4</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <v>0.223692173477334</v>
-      </c>
-      <c r="G45" s="1" t="n">
-        <v>0.00524217745670796</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,7 +967,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>3</v>
@@ -1253,12 +977,6 @@
       </c>
       <c r="E46" s="1" t="n">
         <v>92.11</v>
-      </c>
-      <c r="F46" s="1" t="n">
-        <v>0.432881966629966</v>
-      </c>
-      <c r="G46" s="1" t="n">
-        <v>0.0101444947831979</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,7 +985,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>3</v>
@@ -1277,12 +995,6 @@
       </c>
       <c r="E47" s="1" t="n">
         <v>149.7</v>
-      </c>
-      <c r="F47" s="1" t="n">
-        <v>0.28886447315147</v>
-      </c>
-      <c r="G47" s="1" t="n">
-        <v>0.00676947613168011</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1291,7 +1003,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>3</v>
@@ -1301,12 +1013,6 @@
       </c>
       <c r="E48" s="1" t="n">
         <v>230.1</v>
-      </c>
-      <c r="F48" s="1" t="n">
-        <v>0.197246902649594</v>
-      </c>
-      <c r="G48" s="1" t="n">
-        <v>0.0046224382838318</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,7 +1021,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>3</v>
@@ -1325,12 +1031,6 @@
       </c>
       <c r="E49" s="1" t="n">
         <v>128.5</v>
-      </c>
-      <c r="F49" s="1" t="n">
-        <v>0.640094478646041</v>
-      </c>
-      <c r="G49" s="1" t="n">
-        <v>0.0150004749560964</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,7 +1039,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>4</v>
@@ -1349,12 +1049,6 @@
       </c>
       <c r="E50" s="1" t="n">
         <v>182</v>
-      </c>
-      <c r="F50" s="1" t="n">
-        <v>0.243438732719794</v>
-      </c>
-      <c r="G50" s="1" t="n">
-        <v>0.00570493377982473</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,7 +1057,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>4</v>
@@ -1373,12 +1067,6 @@
       </c>
       <c r="E51" s="1" t="n">
         <v>132.8</v>
-      </c>
-      <c r="F51" s="1" t="n">
-        <v>0.320118245000575</v>
-      </c>
-      <c r="G51" s="1" t="n">
-        <v>0.00750190148066565</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,7 +1075,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>4</v>
@@ -1397,12 +1085,6 @@
       </c>
       <c r="E52" s="1" t="n">
         <v>165.5</v>
-      </c>
-      <c r="F52" s="1" t="n">
-        <v>0.500921564367528</v>
-      </c>
-      <c r="G52" s="1" t="n">
-        <v>0.0117389879649608</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1411,7 +1093,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>4</v>
@@ -1421,12 +1103,6 @@
       </c>
       <c r="E53" s="1" t="n">
         <v>172.6</v>
-      </c>
-      <c r="F53" s="1" t="n">
-        <v>0.255114066123561</v>
-      </c>
-      <c r="G53" s="1" t="n">
-        <v>0.00597854268002607</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,7 +1111,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>4</v>
@@ -1445,12 +1121,6 @@
       </c>
       <c r="E54" s="1" t="n">
         <v>48.84</v>
-      </c>
-      <c r="F54" s="1" t="n">
-        <v>0.692127715418991</v>
-      </c>
-      <c r="G54" s="1" t="n">
-        <v>0.0162198625482972</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,7 +1129,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>4</v>
@@ -1469,12 +1139,6 @@
       </c>
       <c r="E55" s="1" t="n">
         <v>174</v>
-      </c>
-      <c r="F55" s="1" t="n">
-        <v>0.175781465879975</v>
-      </c>
-      <c r="G55" s="1" t="n">
-        <v>0.00411940043953507</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,7 +1147,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>4</v>
@@ -1493,12 +1157,6 @@
       </c>
       <c r="E56" s="1" t="n">
         <v>153.3</v>
-      </c>
-      <c r="F56" s="1" t="n">
-        <v>0.282979228142749</v>
-      </c>
-      <c r="G56" s="1" t="n">
-        <v>0.00663155669430182</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,7 +1165,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>4</v>
@@ -1517,12 +1175,6 @@
       </c>
       <c r="E57" s="1" t="n">
         <v>184.1</v>
-      </c>
-      <c r="F57" s="1" t="n">
-        <v>0.213498620498892</v>
-      </c>
-      <c r="G57" s="1" t="n">
-        <v>0.00500329375864794</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,7 +1183,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>4</v>
@@ -1541,12 +1193,6 @@
       </c>
       <c r="E58" s="1" t="n">
         <v>154.7</v>
-      </c>
-      <c r="F58" s="1" t="n">
-        <v>0.280754773440471</v>
-      </c>
-      <c r="G58" s="1" t="n">
-        <v>0.00657942708193104</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1555,7 +1201,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>4</v>
@@ -1565,12 +1211,6 @@
       </c>
       <c r="E59" s="1" t="n">
         <v>145.2</v>
-      </c>
-      <c r="F59" s="1" t="n">
-        <v>0.296574447510114</v>
-      </c>
-      <c r="G59" s="1" t="n">
-        <v>0.00695015770469354</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,7 +1219,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>5</v>
@@ -1589,12 +1229,6 @@
       </c>
       <c r="E60" s="1" t="n">
         <v>62.97</v>
-      </c>
-      <c r="F60" s="1" t="n">
-        <v>1.39021857376177</v>
-      </c>
-      <c r="G60" s="1" t="n">
-        <v>0.032579470054678</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1603,7 +1237,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>5</v>
@@ -1613,12 +1247,6 @@
       </c>
       <c r="E61" s="1" t="n">
         <v>164.3</v>
-      </c>
-      <c r="F61" s="1" t="n">
-        <v>0.400172515246398</v>
-      </c>
-      <c r="G61" s="1" t="n">
-        <v>0.00937795590077428</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,7 +1255,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>5</v>
@@ -1637,12 +1265,6 @@
       </c>
       <c r="E62" s="1" t="n">
         <v>197.6</v>
-      </c>
-      <c r="F62" s="1" t="n">
-        <v>0.597510053046135</v>
-      </c>
-      <c r="G62" s="1" t="n">
-        <v>0.0140025181996464</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,7 +1273,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>5</v>
@@ -1661,12 +1283,6 @@
       </c>
       <c r="E63" s="1" t="n">
         <v>111.8</v>
-      </c>
-      <c r="F63" s="1" t="n">
-        <v>0.369840403487647</v>
-      </c>
-      <c r="G63" s="1" t="n">
-        <v>0.0086671294556453</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,7 +1291,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>5</v>
@@ -1685,12 +1301,6 @@
       </c>
       <c r="E64" s="1" t="n">
         <v>118</v>
-      </c>
-      <c r="F64" s="1" t="n">
-        <v>0.353624121050741</v>
-      </c>
-      <c r="G64" s="1" t="n">
-        <v>0.00828710440201519</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1699,7 +1309,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>5</v>
@@ -1709,12 +1319,6 @@
       </c>
       <c r="E65" s="1" t="n">
         <v>169.4</v>
-      </c>
-      <c r="F65" s="1" t="n">
-        <v>0.591486811346946</v>
-      </c>
-      <c r="G65" s="1" t="n">
-        <v>0.0138613648398263</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,7 +1327,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>5</v>
@@ -1733,12 +1337,6 @@
       </c>
       <c r="E66" s="1" t="n">
         <v>95.02</v>
-      </c>
-      <c r="F66" s="1" t="n">
-        <v>0.422244952377489</v>
-      </c>
-      <c r="G66" s="1" t="n">
-        <v>0.00989521866658549</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,7 +1345,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>5</v>
@@ -1757,12 +1355,6 @@
       </c>
       <c r="E67" s="1" t="n">
         <v>143</v>
-      </c>
-      <c r="F67" s="1" t="n">
-        <v>0.233171049397738</v>
-      </c>
-      <c r="G67" s="1" t="n">
-        <v>0.00546431285327742</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1771,7 +1363,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>6</v>
@@ -1781,12 +1373,6 @@
       </c>
       <c r="E68" s="1" t="n">
         <v>133.5</v>
-      </c>
-      <c r="F68" s="1" t="n">
-        <v>0.318690054277659</v>
-      </c>
-      <c r="G68" s="1" t="n">
-        <v>0.00746843214155035</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,7 +1381,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>6</v>
@@ -1805,12 +1391,6 @@
       </c>
       <c r="E69" s="1" t="n">
         <v>127.8</v>
-      </c>
-      <c r="F69" s="1" t="n">
-        <v>1.43659661344275</v>
-      </c>
-      <c r="G69" s="1" t="n">
-        <v>0.0336663293324193</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,7 +1399,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>6</v>
@@ -1829,12 +1409,6 @@
       </c>
       <c r="E70" s="1" t="n">
         <v>109.3</v>
-      </c>
-      <c r="F70" s="1" t="n">
-        <v>2.48369391839118</v>
-      </c>
-      <c r="G70" s="1" t="n">
-        <v>0.0582048270440367</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,7 +1417,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71" s="1" t="n">
         <v>6</v>
@@ -1853,12 +1427,6 @@
       </c>
       <c r="E71" s="1" t="n">
         <v>154</v>
-      </c>
-      <c r="F71" s="1" t="n">
-        <v>0.302725925317584</v>
-      </c>
-      <c r="G71" s="1" t="n">
-        <v>0.00709431624983381</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,7 +1435,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" s="1" t="n">
         <v>6</v>
@@ -1877,12 +1445,6 @@
       </c>
       <c r="E72" s="1" t="n">
         <v>33.72</v>
-      </c>
-      <c r="F72" s="1" t="n">
-        <v>0.875269012981086</v>
-      </c>
-      <c r="G72" s="1" t="n">
-        <v>0.0205117390433394</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1891,7 +1453,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73" s="1" t="n">
         <v>6</v>
@@ -1901,12 +1463,6 @@
       </c>
       <c r="E73" s="1" t="n">
         <v>125.5</v>
-      </c>
-      <c r="F73" s="1" t="n">
-        <v>0.368732247525331</v>
-      </c>
-      <c r="G73" s="1" t="n">
-        <v>0.0086411600615719</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1915,7 +1471,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" s="1" t="n">
         <v>6</v>
@@ -1925,12 +1481,6 @@
       </c>
       <c r="E74" s="1" t="n">
         <v>141.1</v>
-      </c>
-      <c r="F74" s="1" t="n">
-        <v>0.568545947540558</v>
-      </c>
-      <c r="G74" s="1" t="n">
-        <v>0.0133237506836679</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1939,7 +1489,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C75" s="1" t="n">
         <v>7</v>
@@ -1949,12 +1499,6 @@
       </c>
       <c r="E75" s="1" t="n">
         <v>79.06</v>
-      </c>
-      <c r="F75" s="1" t="n">
-        <v>0.49680092884061</v>
-      </c>
-      <c r="G75" s="1" t="n">
-        <v>0.0116424217671778</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1963,7 +1507,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1" t="n">
         <v>7</v>
@@ -1973,12 +1517,6 @@
       </c>
       <c r="E76" s="1" t="n">
         <v>161</v>
-      </c>
-      <c r="F76" s="1" t="n">
-        <v>0.33951596038716</v>
-      </c>
-      <c r="G76" s="1" t="n">
-        <v>0.00795648272385563</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1987,7 +1525,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>7</v>
@@ -1997,12 +1535,6 @@
       </c>
       <c r="E77" s="1" t="n">
         <v>144.1</v>
-      </c>
-      <c r="F77" s="1" t="n">
-        <v>0.298522115382383</v>
-      </c>
-      <c r="G77" s="1" t="n">
-        <v>0.0069958008778741</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,7 +1543,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" s="1" t="n">
         <v>7</v>
@@ -2021,12 +1553,6 @@
       </c>
       <c r="E78" s="1" t="n">
         <v>120.2</v>
-      </c>
-      <c r="F78" s="1" t="n">
-        <v>0.348206527712449</v>
-      </c>
-      <c r="G78" s="1" t="n">
-        <v>0.00816014427987</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,7 +1561,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" s="1" t="n">
         <v>7</v>
@@ -2045,12 +1571,6 @@
       </c>
       <c r="E79" s="1" t="n">
         <v>67.23</v>
-      </c>
-      <c r="F79" s="1" t="n">
-        <v>0.551707629273738</v>
-      </c>
-      <c r="G79" s="1" t="n">
-        <v>0.0129291483555889</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,7 +1579,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" s="1" t="n">
         <v>7</v>
@@ -2069,12 +1589,6 @@
       </c>
       <c r="E80" s="1" t="n">
         <v>153.7</v>
-      </c>
-      <c r="F80" s="1" t="n">
-        <v>0.282340081051318</v>
-      </c>
-      <c r="G80" s="1" t="n">
-        <v>0.00661657842115915</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,7 +1597,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1" t="n">
         <v>7</v>
@@ -2093,12 +1607,6 @@
       </c>
       <c r="E81" s="1" t="n">
         <v>92.41</v>
-      </c>
-      <c r="F81" s="1" t="n">
-        <v>0.650344862900525</v>
-      </c>
-      <c r="G81" s="1" t="n">
-        <v>0.0152406904827558</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,7 +1615,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C82" s="1" t="n">
         <v>7</v>
@@ -2117,12 +1625,6 @@
       </c>
       <c r="E82" s="1" t="n">
         <v>53.38</v>
-      </c>
-      <c r="F82" s="1" t="n">
-        <v>1.15174090827017</v>
-      </c>
-      <c r="G82" s="1" t="n">
-        <v>0.0269907978068531</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2131,7 +1633,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" s="1" t="n">
         <v>7</v>
@@ -2141,12 +1643,6 @@
       </c>
       <c r="E83" s="1" t="n">
         <v>180.7</v>
-      </c>
-      <c r="F83" s="1" t="n">
-        <v>0.544020225824793</v>
-      </c>
-      <c r="G83" s="1" t="n">
-        <v>0.0127489957269376</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2155,7 +1651,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" s="1" t="n">
         <v>7</v>
@@ -2165,12 +1661,6 @@
       </c>
       <c r="E84" s="1" t="n">
         <v>98.88</v>
-      </c>
-      <c r="F84" s="1" t="n">
-        <v>0.673220219401039</v>
-      </c>
-      <c r="G84" s="1" t="n">
-        <v>0.0157767694894417</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2179,7 +1669,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" s="1" t="n">
         <v>7</v>
@@ -2189,12 +1679,6 @@
       </c>
       <c r="E85" s="1" t="n">
         <v>161.1</v>
-      </c>
-      <c r="F85" s="1" t="n">
-        <v>0.507446136392656</v>
-      </c>
-      <c r="G85" s="1" t="n">
-        <v>0.0118918898919844</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2203,7 +1687,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" s="1" t="n">
         <v>7</v>
@@ -2213,12 +1697,6 @@
       </c>
       <c r="E86" s="1" t="n">
         <v>48.44</v>
-      </c>
-      <c r="F86" s="1" t="n">
-        <v>1.1417505711707</v>
-      </c>
-      <c r="G86" s="1" t="n">
-        <v>0.0267566764287395</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2227,7 +1705,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" s="1" t="n">
         <v>7</v>
@@ -2237,12 +1715,6 @@
       </c>
       <c r="E87" s="1" t="n">
         <v>163.8</v>
-      </c>
-      <c r="F87" s="1" t="n">
-        <v>1.64200747007419</v>
-      </c>
-      <c r="G87" s="1" t="n">
-        <v>0.0384800881030429</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2251,7 +1723,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1" t="n">
         <v>7</v>
@@ -2261,12 +1733,6 @@
       </c>
       <c r="E88" s="1" t="n">
         <v>95.67</v>
-      </c>
-      <c r="F88" s="1" t="n">
-        <v>1.34480567061239</v>
-      </c>
-      <c r="G88" s="1" t="n">
-        <v>0.0315152285417426</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2275,7 +1741,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C89" s="1" t="n">
         <v>7</v>
@@ -2285,12 +1751,6 @@
       </c>
       <c r="E89" s="1" t="n">
         <v>71.4</v>
-      </c>
-      <c r="F89" s="1" t="n">
-        <v>1.07642616912942</v>
-      </c>
-      <c r="G89" s="1" t="n">
-        <v>0.0252258132678591</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2299,7 +1759,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C90" s="1" t="n">
         <v>7</v>
@@ -2309,12 +1769,6 @@
       </c>
       <c r="E90" s="1" t="n">
         <v>92.33</v>
-      </c>
-      <c r="F90" s="1" t="n">
-        <v>1.07205316026986</v>
-      </c>
-      <c r="G90" s="1" t="n">
-        <v>0.0251233327558893</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,7 +1777,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" s="1" t="n">
         <v>8</v>
@@ -2333,12 +1787,6 @@
       </c>
       <c r="E91" s="1" t="n">
         <v>123.9</v>
-      </c>
-      <c r="F91" s="1" t="n">
-        <v>0.474619065770582</v>
-      </c>
-      <c r="G91" s="1" t="n">
-        <v>0.0111225946282758</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2347,7 +1795,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" s="1" t="n">
         <v>8</v>
@@ -2357,12 +1805,6 @@
       </c>
       <c r="E92" s="1" t="n">
         <v>32.38</v>
-      </c>
-      <c r="F92" s="1" t="n">
-        <v>1.53680355996081</v>
-      </c>
-      <c r="G92" s="1" t="n">
-        <v>0.0360146573399511</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2371,7 +1813,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>8</v>
@@ -2381,12 +1823,6 @@
       </c>
       <c r="E93" s="1" t="n">
         <v>54.33</v>
-      </c>
-      <c r="F93" s="1" t="n">
-        <v>2.22811813268381</v>
-      </c>
-      <c r="G93" s="1" t="n">
-        <v>0.052215464065938</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2395,7 +1831,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>8</v>
@@ -2405,12 +1841,6 @@
       </c>
       <c r="E94" s="1" t="n">
         <v>44.34</v>
-      </c>
-      <c r="F94" s="1" t="n">
-        <v>2.33480865462154</v>
-      </c>
-      <c r="G94" s="1" t="n">
-        <v>0.054715733253957</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,7 +1849,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" s="1" t="n">
         <v>8</v>
@@ -2429,12 +1859,6 @@
       </c>
       <c r="E95" s="1" t="n">
         <v>59.21</v>
-      </c>
-      <c r="F95" s="1" t="n">
-        <v>2.91004403288559</v>
-      </c>
-      <c r="G95" s="1" t="n">
-        <v>0.0681962492924058</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,7 +1867,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96" s="1" t="n">
         <v>8</v>
@@ -2453,12 +1877,6 @@
       </c>
       <c r="E96" s="1" t="n">
         <v>184.1</v>
-      </c>
-      <c r="F96" s="1" t="n">
-        <v>0.950038366967637</v>
-      </c>
-      <c r="G96" s="1" t="n">
-        <v>0.0222639425998068</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,7 +1885,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C97" s="1" t="n">
         <v>9</v>
@@ -2477,12 +1895,6 @@
       </c>
       <c r="E97" s="1" t="n">
         <v>55.08</v>
-      </c>
-      <c r="F97" s="1" t="n">
-        <v>0.495620338355324</v>
-      </c>
-      <c r="G97" s="1" t="n">
-        <v>0.0116147548858052</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2491,7 +1903,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" s="1" t="n">
         <v>9</v>
@@ -2501,12 +1913,6 @@
       </c>
       <c r="E98" s="1" t="n">
         <v>27.67</v>
-      </c>
-      <c r="F98" s="1" t="n">
-        <v>15.7869561340316</v>
-      </c>
-      <c r="G98" s="1" t="n">
-        <v>0.369963885054045</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2515,7 +1921,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" s="1" t="n">
         <v>9</v>
@@ -2525,12 +1931,6 @@
       </c>
       <c r="E99" s="1" t="n">
         <v>90.68</v>
-      </c>
-      <c r="F99" s="1" t="n">
-        <v>1.62326518449243</v>
-      </c>
-      <c r="G99" s="1" t="n">
-        <v>0.0380408667148444</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2539,7 +1939,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100" s="1" t="n">
         <v>9</v>
@@ -2549,12 +1949,6 @@
       </c>
       <c r="E100" s="1" t="n">
         <v>42.67</v>
-      </c>
-      <c r="F100" s="1" t="n">
-        <v>5.75457513018409</v>
-      </c>
-      <c r="G100" s="1" t="n">
-        <v>0.134857217181271</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,7 +1957,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C101" s="1" t="n">
         <v>9</v>
@@ -2573,12 +1967,6 @@
       </c>
       <c r="E101" s="1" t="n">
         <v>80.89</v>
-      </c>
-      <c r="F101" s="1" t="n">
-        <v>3.72026076497007</v>
-      </c>
-      <c r="G101" s="1" t="n">
-        <v>0.0871835022747334</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2587,7 +1975,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" s="1" t="n">
         <v>9</v>
@@ -2597,12 +1985,6 @@
       </c>
       <c r="E102" s="1" t="n">
         <v>152.3</v>
-      </c>
-      <c r="F102" s="1" t="n">
-        <v>1.15630721452509</v>
-      </c>
-      <c r="G102" s="1" t="n">
-        <v>0.0270978082012618</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2611,7 +1993,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1" t="n">
         <v>9</v>
@@ -2621,12 +2003,6 @@
       </c>
       <c r="E103" s="1" t="n">
         <v>90.04</v>
-      </c>
-      <c r="F103" s="1" t="n">
-        <v>1.78264825390496</v>
-      </c>
-      <c r="G103" s="1" t="n">
-        <v>0.0417759742980337</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2635,7 +2011,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C104" s="1" t="n">
         <v>9</v>
@@ -2645,12 +2021,6 @@
       </c>
       <c r="E104" s="1" t="n">
         <v>68.13</v>
-      </c>
-      <c r="F104" s="1" t="n">
-        <v>3.63564752855758</v>
-      </c>
-      <c r="G104" s="1" t="n">
-        <v>0.0852006094735884</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2659,7 +2029,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" s="1" t="n">
         <v>9</v>
@@ -2669,12 +2039,6 @@
       </c>
       <c r="E105" s="1" t="n">
         <v>155.8</v>
-      </c>
-      <c r="F105" s="1" t="n">
-        <v>1.20079583387519</v>
-      </c>
-      <c r="G105" s="1" t="n">
-        <v>0.0281403893242924</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2683,7 +2047,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C106" s="1" t="n">
         <v>9</v>
@@ -2693,12 +2057,6 @@
       </c>
       <c r="E106" s="1" t="n">
         <v>53.02</v>
-      </c>
-      <c r="F106" s="1" t="n">
-        <v>2.37130267100901</v>
-      </c>
-      <c r="G106" s="1" t="n">
-        <v>0.0555709625945155</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,7 +2065,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C107" s="1" t="n">
         <v>9</v>
@@ -2717,12 +2075,6 @@
       </c>
       <c r="E107" s="1" t="n">
         <v>161.8</v>
-      </c>
-      <c r="F107" s="1" t="n">
-        <v>1.36746534870569</v>
-      </c>
-      <c r="G107" s="1" t="n">
-        <v>0.032046253171842</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,7 +2083,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" s="1" t="n">
         <v>9</v>
@@ -2741,12 +2093,6 @@
       </c>
       <c r="E108" s="1" t="n">
         <v>38.4</v>
-      </c>
-      <c r="F108" s="1" t="n">
-        <v>4.11820934369779</v>
-      </c>
-      <c r="G108" s="1" t="n">
-        <v>0.0965093407066568</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2755,7 +2101,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" s="1" t="n">
         <v>9</v>
@@ -2765,12 +2111,6 @@
       </c>
       <c r="E109" s="1" t="n">
         <v>82.73</v>
-      </c>
-      <c r="F109" s="1" t="n">
-        <v>1.58439876264595</v>
-      </c>
-      <c r="G109" s="1" t="n">
-        <v>0.0371300405680941</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,7 +2119,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" s="1" t="n">
         <v>9</v>
@@ -2789,12 +2129,6 @@
       </c>
       <c r="E110" s="1" t="n">
         <v>91.59</v>
-      </c>
-      <c r="F110" s="1" t="n">
-        <v>2.46516638780723</v>
-      </c>
-      <c r="G110" s="1" t="n">
-        <v>0.057770638392526</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2803,7 +2137,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C111" s="1" t="n">
         <v>9</v>
@@ -2813,12 +2147,6 @@
       </c>
       <c r="E111" s="1" t="n">
         <v>53.43</v>
-      </c>
-      <c r="F111" s="1" t="n">
-        <v>5.68160076652412</v>
-      </c>
-      <c r="G111" s="1" t="n">
-        <v>0.133147078832891</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2827,7 +2155,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" s="1" t="n">
         <v>9</v>
@@ -2837,12 +2165,6 @@
       </c>
       <c r="E112" s="1" t="n">
         <v>164.9</v>
-      </c>
-      <c r="F112" s="1" t="n">
-        <v>1.37686824715076</v>
-      </c>
-      <c r="G112" s="1" t="n">
-        <v>0.0322666080527938</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,7 +2173,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C113" s="1" t="n">
         <v>9</v>
@@ -2861,12 +2183,6 @@
       </c>
       <c r="E113" s="1" t="n">
         <v>190.3</v>
-      </c>
-      <c r="F113" s="1" t="n">
-        <v>1.89807333495564</v>
-      </c>
-      <c r="G113" s="1" t="n">
-        <v>0.0444809359800473</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,7 +2191,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C114" s="1" t="n">
         <v>9</v>
@@ -2885,12 +2201,6 @@
       </c>
       <c r="E114" s="1" t="n">
         <v>93.57</v>
-      </c>
-      <c r="F114" s="1" t="n">
-        <v>1.54029305167266</v>
-      </c>
-      <c r="G114" s="1" t="n">
-        <v>0.0360964328196332</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2899,7 +2209,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C115" s="1" t="n">
         <v>10</v>
@@ -2909,12 +2219,6 @@
       </c>
       <c r="E115" s="1" t="n">
         <v>40.92</v>
-      </c>
-      <c r="F115" s="1" t="n">
-        <v>6.334127913444</v>
-      </c>
-      <c r="G115" s="1" t="n">
-        <v>0.148438910667231</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2923,7 +2227,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C116" s="1" t="n">
         <v>10</v>
@@ -2933,12 +2237,6 @@
       </c>
       <c r="E116" s="1" t="n">
         <v>87.96</v>
-      </c>
-      <c r="F116" s="1" t="n">
-        <v>2.194201130026</v>
-      </c>
-      <c r="G116" s="1" t="n">
-        <v>0.0514206264819137</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,7 +2245,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" s="1" t="n">
         <v>10</v>
@@ -2957,12 +2255,6 @@
       </c>
       <c r="E117" s="1" t="n">
         <v>108.3</v>
-      </c>
-      <c r="F117" s="1" t="n">
-        <v>1.29184183919088</v>
-      </c>
-      <c r="G117" s="1" t="n">
-        <v>0.0302740326662558</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2971,7 +2263,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C118" s="1" t="n">
         <v>10</v>
@@ -2981,12 +2273,6 @@
       </c>
       <c r="E118" s="1" t="n">
         <v>96.03</v>
-      </c>
-      <c r="F118" s="1" t="n">
-        <v>3.45829568577261</v>
-      </c>
-      <c r="G118" s="1" t="n">
-        <v>0.0810444075926711</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2995,7 +2281,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" s="1" t="n">
         <v>10</v>
@@ -3005,12 +2291,6 @@
       </c>
       <c r="E119" s="1" t="n">
         <v>41.41</v>
-      </c>
-      <c r="F119" s="1" t="n">
-        <v>2.502261976318</v>
-      </c>
-      <c r="G119" s="1" t="n">
-        <v>0.0586399654450176</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3019,7 +2299,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120" s="1" t="n">
         <v>10</v>
@@ -3029,12 +2309,6 @@
       </c>
       <c r="E120" s="1" t="n">
         <v>86.92</v>
-      </c>
-      <c r="F120" s="1" t="n">
-        <v>3.59858952394145</v>
-      </c>
-      <c r="G120" s="1" t="n">
-        <v>0.0843321631914975</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3043,7 +2317,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" s="1" t="n">
         <v>10</v>
@@ -3053,12 +2327,6 @@
       </c>
       <c r="E121" s="1" t="n">
         <v>125</v>
-      </c>
-      <c r="F121" s="1" t="n">
-        <v>2.10565916569779</v>
-      </c>
-      <c r="G121" s="1" t="n">
-        <v>0.0493456647961352</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3067,7 +2335,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" s="1" t="n">
         <v>10</v>
@@ -3077,12 +2345,6 @@
       </c>
       <c r="E122" s="1" t="n">
         <v>109.8</v>
-      </c>
-      <c r="F122" s="1" t="n">
-        <v>2.91161300747487</v>
-      </c>
-      <c r="G122" s="1" t="n">
-        <v>0.0682330178708241</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3091,7 +2353,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" s="1" t="n">
         <v>11</v>
@@ -3101,12 +2363,6 @@
       </c>
       <c r="E123" s="1" t="n">
         <v>45.57</v>
-      </c>
-      <c r="F123" s="1" t="n">
-        <v>3.66073838467521</v>
-      </c>
-      <c r="G123" s="1" t="n">
-        <v>0.0857886082321713</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3115,7 +2371,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" s="1" t="n">
         <v>11</v>
@@ -3125,12 +2381,6 @@
       </c>
       <c r="E124" s="1" t="n">
         <v>60.2</v>
-      </c>
-      <c r="F124" s="1" t="n">
-        <v>1.69993470388976</v>
-      </c>
-      <c r="G124" s="1" t="n">
-        <v>0.0398376002346339</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,7 +2389,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125" s="1" t="n">
         <v>11</v>
@@ -3149,12 +2399,6 @@
       </c>
       <c r="E125" s="1" t="n">
         <v>62.78</v>
-      </c>
-      <c r="F125" s="1" t="n">
-        <v>3.39525607183976</v>
-      </c>
-      <c r="G125" s="1" t="n">
-        <v>0.0795670879444188</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3163,7 +2407,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C126" s="1" t="n">
         <v>11</v>
@@ -3173,12 +2417,6 @@
       </c>
       <c r="E126" s="1" t="n">
         <v>81.68</v>
-      </c>
-      <c r="F126" s="1" t="n">
-        <v>2.31591665752059</v>
-      </c>
-      <c r="G126" s="1" t="n">
-        <v>0.0542730034088521</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3187,7 +2425,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" s="1" t="n">
         <v>11</v>
@@ -3197,12 +2435,6 @@
       </c>
       <c r="E127" s="1" t="n">
         <v>19.73</v>
-      </c>
-      <c r="F127" s="1" t="n">
-        <v>7.71847764958024</v>
-      </c>
-      <c r="G127" s="1" t="n">
-        <v>0.180880845787989</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3211,7 +2443,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C128" s="1" t="n">
         <v>11</v>
@@ -3221,12 +2453,6 @@
       </c>
       <c r="E128" s="1" t="n">
         <v>41.29</v>
-      </c>
-      <c r="F128" s="1" t="n">
-        <v>9.99750111078152</v>
-      </c>
-      <c r="G128" s="1" t="n">
-        <v>0.234289265161358</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3235,7 +2461,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" s="1" t="n">
         <v>11</v>
@@ -3245,12 +2471,6 @@
       </c>
       <c r="E129" s="1" t="n">
         <v>82.87</v>
-      </c>
-      <c r="F129" s="1" t="n">
-        <v>4.11455811656983</v>
-      </c>
-      <c r="G129" s="1" t="n">
-        <v>0.0964237749926582</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,7 +2479,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>11</v>
@@ -3269,12 +2489,6 @@
       </c>
       <c r="E130" s="1" t="n">
         <v>44.82</v>
-      </c>
-      <c r="F130" s="1" t="n">
-        <v>3.52436490866626</v>
-      </c>
-      <c r="G130" s="1" t="n">
-        <v>0.0825927254683094</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3283,7 +2497,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C131" s="1" t="n">
         <v>11</v>
@@ -3293,12 +2507,6 @@
       </c>
       <c r="E131" s="1" t="n">
         <v>49.51</v>
-      </c>
-      <c r="F131" s="1" t="n">
-        <v>7.1909442876585</v>
-      </c>
-      <c r="G131" s="1" t="n">
-        <v>0.168518216132519</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,7 +2515,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C132" s="1" t="n">
         <v>11</v>
@@ -3317,12 +2525,6 @@
       </c>
       <c r="E132" s="1" t="n">
         <v>67.14</v>
-      </c>
-      <c r="F132" s="1" t="n">
-        <v>6.63469400815979</v>
-      </c>
-      <c r="G132" s="1" t="n">
-        <v>0.15548261175644</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,7 +2533,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" s="1" t="n">
         <v>12</v>
@@ -3341,12 +2543,6 @@
       </c>
       <c r="E133" s="1" t="n">
         <v>73.99</v>
-      </c>
-      <c r="F133" s="1" t="n">
-        <v>7.20362961442432</v>
-      </c>
-      <c r="G133" s="1" t="n">
-        <v>0.168815494007596</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3355,7 +2551,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" s="1" t="n">
         <v>12</v>
@@ -3365,12 +2561,6 @@
       </c>
       <c r="E134" s="1" t="n">
         <v>49.82</v>
-      </c>
-      <c r="F134" s="1" t="n">
-        <v>10.5036049194333</v>
-      </c>
-      <c r="G134" s="1" t="n">
-        <v>0.246149697894545</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3379,7 +2569,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" s="1" t="n">
         <v>12</v>
@@ -3389,12 +2579,6 @@
       </c>
       <c r="E135" s="1" t="n">
         <v>77.68</v>
-      </c>
-      <c r="F135" s="1" t="n">
-        <v>5.91108686331657</v>
-      </c>
-      <c r="G135" s="1" t="n">
-        <v>0.138525035622941</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3403,7 +2587,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" s="1" t="n">
         <v>12</v>
@@ -3413,12 +2597,6 @@
       </c>
       <c r="E136" s="1" t="n">
         <v>175.8</v>
-      </c>
-      <c r="F136" s="1" t="n">
-        <v>11.099572360939</v>
-      </c>
-      <c r="G136" s="1" t="n">
-        <v>0.260116065328091</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,7 +2605,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C137" s="1" t="n">
         <v>13</v>
@@ -3437,12 +2615,6 @@
       </c>
       <c r="E137" s="1" t="n">
         <v>52.66</v>
-      </c>
-      <c r="F137" s="1" t="n">
-        <v>9.23120295571536</v>
-      </c>
-      <c r="G137" s="1" t="n">
-        <v>0.216331234483938</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3451,7 +2623,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" s="1" t="n">
         <v>13</v>
@@ -3461,12 +2633,6 @@
       </c>
       <c r="E138" s="1" t="n">
         <v>70</v>
-      </c>
-      <c r="F138" s="1" t="n">
-        <v>4.34868074410436</v>
-      </c>
-      <c r="G138" s="1" t="n">
-        <v>0.101910387872707</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,7 +2641,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" s="1" t="n">
         <v>13</v>
@@ -3485,12 +2651,6 @@
       </c>
       <c r="E139" s="1" t="n">
         <v>14.19</v>
-      </c>
-      <c r="F139" s="1" t="n">
-        <v>7.89045202712128</v>
-      </c>
-      <c r="G139" s="1" t="n">
-        <v>0.184911027939929</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3499,7 +2659,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C140" s="1" t="n">
         <v>13</v>
@@ -3509,12 +2669,6 @@
       </c>
       <c r="E140" s="1" t="n">
         <v>84.74</v>
-      </c>
-      <c r="F140" s="1" t="n">
-        <v>6.64402532148017</v>
-      </c>
-      <c r="G140" s="1" t="n">
-        <v>0.155701289055557</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,7 +2677,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C141" s="1" t="n">
         <v>13</v>
@@ -3533,12 +2687,6 @@
       </c>
       <c r="E141" s="1" t="n">
         <v>37.72</v>
-      </c>
-      <c r="F141" s="1" t="n">
-        <v>5.84222444022401</v>
-      </c>
-      <c r="G141" s="1" t="n">
-        <v>0.136911259707858</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3547,7 +2695,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>13</v>
@@ -3557,12 +2705,6 @@
       </c>
       <c r="E142" s="1" t="n">
         <v>63.31</v>
-      </c>
-      <c r="F142" s="1" t="n">
-        <v>7.42948156656679</v>
-      </c>
-      <c r="G142" s="1" t="n">
-        <v>0.174108285407804</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3571,7 +2713,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C143" s="1" t="n">
         <v>14</v>
@@ -3581,12 +2723,6 @@
       </c>
       <c r="E143" s="1" t="n">
         <v>65.73</v>
-      </c>
-      <c r="F143" s="1" t="n">
-        <v>4.44449753126588</v>
-      </c>
-      <c r="G143" s="1" t="n">
-        <v>0.1041558334501</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3595,7 +2731,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" s="1" t="n">
         <v>14</v>
@@ -3605,12 +2741,6 @@
       </c>
       <c r="E144" s="1" t="n">
         <v>99.66</v>
-      </c>
-      <c r="F144" s="1" t="n">
-        <v>6.81258815914764</v>
-      </c>
-      <c r="G144" s="1" t="n">
-        <v>0.159651522512199</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3619,7 +2749,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" s="1" t="n">
         <v>14</v>
@@ -3629,12 +2759,6 @@
       </c>
       <c r="E145" s="1" t="n">
         <v>69.92</v>
-      </c>
-      <c r="F145" s="1" t="n">
-        <v>3.91051266095663</v>
-      </c>
-      <c r="G145" s="1" t="n">
-        <v>0.0916420140980705</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3643,7 +2767,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C146" s="1" t="n">
         <v>14</v>
@@ -3653,12 +2777,6 @@
       </c>
       <c r="E146" s="1" t="n">
         <v>37.56</v>
-      </c>
-      <c r="F146" s="1" t="n">
-        <v>2.51228814584562</v>
-      </c>
-      <c r="G146" s="1" t="n">
-        <v>0.0588749265482953</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,7 +2785,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C147" s="1" t="n">
         <v>14</v>
@@ -3677,12 +2795,6 @@
       </c>
       <c r="E147" s="1" t="n">
         <v>143.2</v>
-      </c>
-      <c r="F147" s="1" t="n">
-        <v>4.64534380907741</v>
-      </c>
-      <c r="G147" s="1" t="n">
-        <v>0.108862622308379</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3691,7 +2803,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C148" s="1" t="n">
         <v>14</v>
@@ -3701,12 +2813,6 @@
       </c>
       <c r="E148" s="1" t="n">
         <v>47.73</v>
-      </c>
-      <c r="F148" s="1" t="n">
-        <v>13.0546239841918</v>
-      </c>
-      <c r="G148" s="1" t="n">
-        <v>0.3059322751078</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3715,7 +2821,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C149" s="1" t="n">
         <v>14</v>
@@ -3725,12 +2831,6 @@
       </c>
       <c r="E149" s="1" t="n">
         <v>68.99</v>
-      </c>
-      <c r="F149" s="1" t="n">
-        <v>7.36506952648502</v>
-      </c>
-      <c r="G149" s="1" t="n">
-        <v>0.172598803251105</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3739,7 +2839,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C150" s="1" t="n">
         <v>14</v>
@@ -3749,12 +2849,6 @@
       </c>
       <c r="E150" s="1" t="n">
         <v>109.5</v>
-      </c>
-      <c r="F150" s="1" t="n">
-        <v>7.87405691747325</v>
-      </c>
-      <c r="G150" s="1" t="n">
-        <v>0.184526812109482</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3763,7 +2857,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C151" s="1" t="n">
         <v>14</v>
@@ -3773,12 +2867,6 @@
       </c>
       <c r="E151" s="1" t="n">
         <v>86.61</v>
-      </c>
-      <c r="F151" s="1" t="n">
-        <v>8.51679884622475</v>
-      </c>
-      <c r="G151" s="1" t="n">
-        <v>0.199589329483267</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3787,7 +2875,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>14</v>
@@ -3797,12 +2885,6 @@
       </c>
       <c r="E152" s="1" t="n">
         <v>44.07</v>
-      </c>
-      <c r="F152" s="1" t="n">
-        <v>5.20239550981315</v>
-      </c>
-      <c r="G152" s="1" t="n">
-        <v>0.121917007816926</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3811,7 +2893,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C153" s="1" t="n">
         <v>14</v>
@@ -3821,12 +2903,6 @@
       </c>
       <c r="E153" s="1" t="n">
         <v>78.88</v>
-      </c>
-      <c r="F153" s="1" t="n">
-        <v>5.44718780170012</v>
-      </c>
-      <c r="G153" s="1" t="n">
-        <v>0.127653661961581</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3835,7 +2911,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C154" s="1" t="n">
         <v>14</v>
@@ -3845,12 +2921,6 @@
       </c>
       <c r="E154" s="1" t="n">
         <v>22.56</v>
-      </c>
-      <c r="F154" s="1" t="n">
-        <v>1.0702477648228</v>
-      </c>
-      <c r="G154" s="1" t="n">
-        <v>0.0250810237060648</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3859,7 +2929,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C155" s="1" t="n">
         <v>14</v>
@@ -3869,12 +2939,6 @@
       </c>
       <c r="E155" s="1" t="n">
         <v>63.23</v>
-      </c>
-      <c r="F155" s="1" t="n">
-        <v>4.32909282311493</v>
-      </c>
-      <c r="G155" s="1" t="n">
-        <v>0.101451349202563</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3883,7 +2947,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C156" s="1" t="n">
         <v>15</v>
@@ -3893,12 +2957,6 @@
       </c>
       <c r="E156" s="1" t="n">
         <v>21.37</v>
-      </c>
-      <c r="F156" s="1" t="n">
-        <v>18.234168710019</v>
-      </c>
-      <c r="G156" s="1" t="n">
-        <v>0.427313779769577</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3907,7 +2965,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C157" s="1" t="n">
         <v>15</v>
@@ -3917,12 +2975,6 @@
       </c>
       <c r="E157" s="1" t="n">
         <v>46.6</v>
-      </c>
-      <c r="F157" s="1" t="n">
-        <v>6.82742851993497</v>
-      </c>
-      <c r="G157" s="1" t="n">
-        <v>0.159999303141085</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,7 +2983,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C158" s="1" t="n">
         <v>15</v>
@@ -3941,12 +2993,6 @@
       </c>
       <c r="E158" s="1" t="n">
         <v>39.01</v>
-      </c>
-      <c r="F158" s="1" t="n">
-        <v>8.0148569003962</v>
-      </c>
-      <c r="G158" s="1" t="n">
-        <v>0.187826429100589</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,7 +3001,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" s="1" t="n">
         <v>15</v>
@@ -3965,12 +3011,6 @@
       </c>
       <c r="E159" s="1" t="n">
         <v>63.07</v>
-      </c>
-      <c r="F159" s="1" t="n">
-        <v>12.1284199798135</v>
-      </c>
-      <c r="G159" s="1" t="n">
-        <v>0.28422688561389</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3979,7 +3019,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C160" s="1" t="n">
         <v>15</v>
@@ -3989,12 +3029,6 @@
       </c>
       <c r="E160" s="1" t="n">
         <v>23.57</v>
-      </c>
-      <c r="F160" s="1" t="n">
-        <v>9.53354072557651</v>
-      </c>
-      <c r="G160" s="1" t="n">
-        <v>0.223416454395032</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4003,7 +3037,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C161" s="1" t="n">
         <v>15</v>
@@ -4013,12 +3047,6 @@
       </c>
       <c r="E161" s="1" t="n">
         <v>71.12</v>
-      </c>
-      <c r="F161" s="1" t="n">
-        <v>16.2712857255776</v>
-      </c>
-      <c r="G161" s="1" t="n">
-        <v>0.381314043742883</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,7 +3055,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C162" s="1" t="n">
         <v>15</v>
@@ -4037,12 +3065,6 @@
       </c>
       <c r="E162" s="1" t="n">
         <v>40.96</v>
-      </c>
-      <c r="F162" s="1" t="n">
-        <v>6.73729706840833</v>
-      </c>
-      <c r="G162" s="1" t="n">
-        <v>0.157887092168352</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4051,7 +3073,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C163" s="1" t="n">
         <v>15</v>
@@ -4061,12 +3083,6 @@
       </c>
       <c r="E163" s="1" t="n">
         <v>21.08</v>
-      </c>
-      <c r="F163" s="1" t="n">
-        <v>1.123819787694</v>
-      </c>
-      <c r="G163" s="1" t="n">
-        <v>0.0263364724159594</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4075,7 +3091,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C164" s="1" t="n">
         <v>15</v>
@@ -4085,12 +3101,6 @@
       </c>
       <c r="E164" s="1" t="n">
         <v>116.7</v>
-      </c>
-      <c r="F164" s="1" t="n">
-        <v>8.0457843164012</v>
-      </c>
-      <c r="G164" s="1" t="n">
-        <v>0.188551206371315</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4099,7 +3109,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C165" s="1" t="n">
         <v>15</v>
@@ -4109,12 +3119,6 @@
       </c>
       <c r="E165" s="1" t="n">
         <v>52.08</v>
-      </c>
-      <c r="F165" s="1" t="n">
-        <v>9.36941656130023</v>
-      </c>
-      <c r="G165" s="1" t="n">
-        <v>0.219570240284384</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4123,7 +3127,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" s="1" t="n">
         <v>15</v>
@@ -4133,12 +3137,6 @@
       </c>
       <c r="E166" s="1" t="n">
         <v>37.4</v>
-      </c>
-      <c r="F166" s="1" t="n">
-        <v>16.3866924217776</v>
-      </c>
-      <c r="G166" s="1" t="n">
-        <v>0.384018574579919</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4147,7 +3145,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C167" s="1" t="n">
         <v>15</v>
@@ -4157,12 +3155,6 @@
       </c>
       <c r="E167" s="1" t="n">
         <v>213.5</v>
-      </c>
-      <c r="F167" s="1" t="n">
-        <v>1.91521746353353</v>
-      </c>
-      <c r="G167" s="1" t="n">
-        <v>0.0448827049062857</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4171,7 +3163,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168" s="1" t="n">
         <v>15</v>
@@ -4181,12 +3173,6 @@
       </c>
       <c r="E168" s="1" t="n">
         <v>66.67</v>
-      </c>
-      <c r="F168" s="1" t="n">
-        <v>8.38634684285985</v>
-      </c>
-      <c r="G168" s="1" t="n">
-        <v>0.196532215143542</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4195,7 +3181,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C169" s="1" t="n">
         <v>15</v>
@@ -4205,12 +3191,6 @@
       </c>
       <c r="E169" s="1" t="n">
         <v>128</v>
-      </c>
-      <c r="F169" s="1" t="n">
-        <v>0.486878420137726</v>
-      </c>
-      <c r="G169" s="1" t="n">
-        <v>0.0114098899327928</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4219,7 +3199,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C170" s="1" t="n">
         <v>15</v>
@@ -4229,12 +3209,6 @@
       </c>
       <c r="E170" s="1" t="n">
         <v>61.15</v>
-      </c>
-      <c r="F170" s="1" t="n">
-        <v>10.4943773646764</v>
-      </c>
-      <c r="G170" s="1" t="n">
-        <v>0.245933452154809</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4243,7 +3217,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C171" s="1" t="n">
         <v>16</v>
@@ -4253,12 +3227,6 @@
       </c>
       <c r="E171" s="1" t="n">
         <v>115.4</v>
-      </c>
-      <c r="F171" s="1" t="n">
-        <v>2.37439819455069</v>
-      </c>
-      <c r="G171" s="1" t="n">
-        <v>0.0556435055157749</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4267,7 +3235,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172" s="1" t="n">
         <v>16</v>
@@ -4277,12 +3245,6 @@
       </c>
       <c r="E172" s="1" t="n">
         <v>32.35</v>
-      </c>
-      <c r="F172" s="1" t="n">
-        <v>11.5854602461022</v>
-      </c>
-      <c r="G172" s="1" t="n">
-        <v>0.271502742289091</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4291,7 +3253,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C173" s="1" t="n">
         <v>16</v>
@@ -4301,12 +3263,6 @@
       </c>
       <c r="E173" s="1" t="n">
         <v>56.73</v>
-      </c>
-      <c r="F173" s="1" t="n">
-        <v>6.90687000562216</v>
-      </c>
-      <c r="G173" s="1" t="n">
-        <v>0.161860997088276</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4315,7 +3271,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C174" s="1" t="n">
         <v>16</v>
@@ -4325,12 +3281,6 @@
       </c>
       <c r="E174" s="1" t="n">
         <v>88.39</v>
-      </c>
-      <c r="F174" s="1" t="n">
-        <v>3.4522743190577</v>
-      </c>
-      <c r="G174" s="1" t="n">
-        <v>0.0809032981727</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,7 +3289,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C175" s="1" t="n">
         <v>16</v>
@@ -4349,12 +3299,6 @@
       </c>
       <c r="E175" s="1" t="n">
         <v>48.11</v>
-      </c>
-      <c r="F175" s="1" t="n">
-        <v>4.7534129983113</v>
-      </c>
-      <c r="G175" s="1" t="n">
-        <v>0.111395200264774</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4363,7 +3307,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C176" s="1" t="n">
         <v>16</v>
@@ -4373,12 +3317,6 @@
       </c>
       <c r="E176" s="1" t="n">
         <v>63.76</v>
-      </c>
-      <c r="F176" s="1" t="n">
-        <v>3.85278577742993</v>
-      </c>
-      <c r="G176" s="1" t="n">
-        <v>0.0902891971319448</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,7 +3325,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C177" s="1" t="n">
         <v>16</v>
@@ -4397,12 +3335,6 @@
       </c>
       <c r="E177" s="1" t="n">
         <v>177.7</v>
-      </c>
-      <c r="F177" s="1" t="n">
-        <v>3.94138515458613</v>
-      </c>
-      <c r="G177" s="1" t="n">
-        <v>0.0923655042748663</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4411,7 +3343,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" s="1" t="n">
         <v>16</v>
@@ -4421,12 +3353,6 @@
       </c>
       <c r="E178" s="1" t="n">
         <v>95.62</v>
-      </c>
-      <c r="F178" s="1" t="n">
-        <v>4.72153759021509</v>
-      </c>
-      <c r="G178" s="1" t="n">
-        <v>0.110648207005475</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4435,7 +3361,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C179" s="1" t="n">
         <v>16</v>
@@ -4445,12 +3371,6 @@
       </c>
       <c r="E179" s="1" t="n">
         <v>66.67</v>
-      </c>
-      <c r="F179" s="1" t="n">
-        <v>9.21830848461234</v>
-      </c>
-      <c r="G179" s="1" t="n">
-        <v>0.216029055356785</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4459,7 +3379,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C180" s="1" t="n">
         <v>16</v>
@@ -4469,12 +3389,6 @@
       </c>
       <c r="E180" s="1" t="n">
         <v>36.63</v>
-      </c>
-      <c r="F180" s="1" t="n">
-        <v>10.471610766706</v>
-      </c>
-      <c r="G180" s="1" t="n">
-        <v>0.245399921880633</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4483,7 +3397,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C181" s="1" t="n">
         <v>17</v>
@@ -4493,12 +3407,6 @@
       </c>
       <c r="E181" s="1" t="n">
         <v>49.87</v>
-      </c>
-      <c r="F181" s="1" t="n">
-        <v>8.09278609238535</v>
-      </c>
-      <c r="G181" s="1" t="n">
-        <v>0.189652682773726</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4507,7 +3415,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" s="1" t="n">
         <v>17</v>
@@ -4517,12 +3425,6 @@
       </c>
       <c r="E182" s="1" t="n">
         <v>145.7</v>
-      </c>
-      <c r="F182" s="1" t="n">
-        <v>2.51823801337986</v>
-      </c>
-      <c r="G182" s="1" t="n">
-        <v>0.0590143604005107</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4531,7 +3433,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" s="1" t="n">
         <v>17</v>
@@ -4541,12 +3443,6 @@
       </c>
       <c r="E183" s="1" t="n">
         <v>66.94</v>
-      </c>
-      <c r="F183" s="1" t="n">
-        <v>3.1942631222233</v>
-      </c>
-      <c r="G183" s="1" t="n">
-        <v>0.0748568618642764</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4555,7 +3451,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C184" s="1" t="n">
         <v>17</v>
@@ -4565,12 +3461,6 @@
       </c>
       <c r="E184" s="1" t="n">
         <v>232.7</v>
-      </c>
-      <c r="F184" s="1" t="n">
-        <v>1.11773337108249</v>
-      </c>
-      <c r="G184" s="1" t="n">
-        <v>0.0261938385658027</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4579,7 +3469,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C185" s="1" t="n">
         <v>17</v>
@@ -4589,12 +3479,6 @@
       </c>
       <c r="E185" s="1" t="n">
         <v>255.8</v>
-      </c>
-      <c r="F185" s="1" t="n">
-        <v>0.996486720968806</v>
-      </c>
-      <c r="G185" s="1" t="n">
-        <v>0.0233524496783559</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4603,7 +3487,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C186" s="1" t="n">
         <v>17</v>
@@ -4613,12 +3497,6 @@
       </c>
       <c r="E186" s="1" t="n">
         <v>172.5</v>
-      </c>
-      <c r="F186" s="1" t="n">
-        <v>2.3577061081713</v>
-      </c>
-      <c r="G186" s="1" t="n">
-        <v>0.0552523301001884</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4627,7 +3505,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C187" s="1" t="n">
         <v>17</v>
@@ -4637,12 +3515,6 @@
       </c>
       <c r="E187" s="1" t="n">
         <v>42.19</v>
-      </c>
-      <c r="F187" s="1" t="n">
-        <v>9.08885001521718</v>
-      </c>
-      <c r="G187" s="1" t="n">
-        <v>0.212995224269655</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4651,7 +3523,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C188" s="1" t="n">
         <v>17</v>
@@ -4661,12 +3533,6 @@
       </c>
       <c r="E188" s="1" t="n">
         <v>44.68</v>
-      </c>
-      <c r="F188" s="1" t="n">
-        <v>10.4355531566264</v>
-      </c>
-      <c r="G188" s="1" t="n">
-        <v>0.244554919627028</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4675,7 +3541,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C189" s="1" t="n">
         <v>17</v>
@@ -4685,12 +3551,6 @@
       </c>
       <c r="E189" s="1" t="n">
         <v>55.31</v>
-      </c>
-      <c r="F189" s="1" t="n">
-        <v>13.9775231228081</v>
-      </c>
-      <c r="G189" s="1" t="n">
-        <v>0.327560215791024</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4699,7 +3559,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C190" s="1" t="n">
         <v>17</v>
@@ -4709,12 +3569,6 @@
       </c>
       <c r="E190" s="1" t="n">
         <v>47.43</v>
-      </c>
-      <c r="F190" s="1" t="n">
-        <v>12.5790513080943</v>
-      </c>
-      <c r="G190" s="1" t="n">
-        <v>0.294787332828818</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4723,7 +3577,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C191" s="1" t="n">
         <v>18</v>
@@ -4733,12 +3587,6 @@
       </c>
       <c r="E191" s="1" t="n">
         <v>59.3</v>
-      </c>
-      <c r="F191" s="1" t="n">
-        <v>9.43042856238238</v>
-      </c>
-      <c r="G191" s="1" t="n">
-        <v>0.221000043266265</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4747,7 +3595,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C192" s="1" t="n">
         <v>18</v>
@@ -4757,12 +3605,6 @@
       </c>
       <c r="E192" s="1" t="n">
         <v>53.95</v>
-      </c>
-      <c r="F192" s="1" t="n">
-        <v>13.3026369311573</v>
-      </c>
-      <c r="G192" s="1" t="n">
-        <v>0.311744404604077</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4771,7 +3613,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C193" s="1" t="n">
         <v>19</v>
@@ -4781,12 +3623,6 @@
       </c>
       <c r="E193" s="1" t="n">
         <v>155.8</v>
-      </c>
-      <c r="F193" s="1" t="n">
-        <v>5.6064443660699</v>
-      </c>
-      <c r="G193" s="1" t="n">
-        <v>0.131385804926595</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4795,7 +3631,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C194" s="1" t="n">
         <v>19</v>
@@ -4805,12 +3641,6 @@
       </c>
       <c r="E194" s="1" t="n">
         <v>107.8</v>
-      </c>
-      <c r="F194" s="1" t="n">
-        <v>11.3827298434656</v>
-      </c>
-      <c r="G194" s="1" t="n">
-        <v>0.266751799375129</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4819,7 +3649,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C195" s="1" t="n">
         <v>19</v>
@@ -4829,12 +3659,6 @@
       </c>
       <c r="E195" s="1" t="n">
         <v>332.8</v>
-      </c>
-      <c r="F195" s="1" t="n">
-        <v>1.65596153739656</v>
-      </c>
-      <c r="G195" s="1" t="n">
-        <v>0.0388070986372497</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4843,7 +3667,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C196" s="1" t="n">
         <v>19</v>
@@ -4853,12 +3677,6 @@
       </c>
       <c r="E196" s="1" t="n">
         <v>69.34</v>
-      </c>
-      <c r="F196" s="1" t="n">
-        <v>14.4904855491734</v>
-      </c>
-      <c r="G196" s="1" t="n">
-        <v>0.339581378739325</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,7 +3685,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" s="1" t="n">
         <v>0.09</v>
@@ -4877,12 +3695,6 @@
       </c>
       <c r="E197" s="1" t="n">
         <v>148.4</v>
-      </c>
-      <c r="F197" s="1" t="n">
-        <v>35.0705435826615</v>
-      </c>
-      <c r="G197" s="1" t="n">
-        <v>0.821870564828458</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4891,7 +3703,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" s="1" t="n">
         <v>0.14</v>
@@ -4901,12 +3713,6 @@
       </c>
       <c r="E198" s="1" t="n">
         <v>121.7</v>
-      </c>
-      <c r="F198" s="1" t="n">
-        <v>38.7643170624927</v>
-      </c>
-      <c r="G198" s="1" t="n">
-        <v>0.908433343334068</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4915,7 +3721,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C199" s="1" t="n">
         <v>0.33</v>
@@ -4925,12 +3731,6 @@
       </c>
       <c r="E199" s="1" t="n">
         <v>208.6</v>
-      </c>
-      <c r="F199" s="1" t="n">
-        <v>32.6016380038722</v>
-      </c>
-      <c r="G199" s="1" t="n">
-        <v>0.764012299308135</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4939,7 +3739,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C200" s="1" t="n">
         <v>0.42</v>
@@ -4949,12 +3749,6 @@
       </c>
       <c r="E200" s="1" t="n">
         <v>273.9</v>
-      </c>
-      <c r="F200" s="1" t="n">
-        <v>2.98800609750323</v>
-      </c>
-      <c r="G200" s="1" t="n">
-        <v>0.0700232733284452</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,7 +3757,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C201" s="1" t="n">
         <v>0.67</v>
@@ -4973,12 +3767,6 @@
       </c>
       <c r="E201" s="1" t="n">
         <v>243.9</v>
-      </c>
-      <c r="F201" s="1" t="n">
-        <v>0.280993185815045</v>
-      </c>
-      <c r="G201" s="1" t="n">
-        <v>0.00658501422410041</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4987,7 +3775,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C202" s="1" t="n">
         <v>0.75</v>
@@ -4997,12 +3785,6 @@
       </c>
       <c r="E202" s="1" t="n">
         <v>159.7</v>
-      </c>
-      <c r="F202" s="1" t="n">
-        <v>0.369792288240499</v>
-      </c>
-      <c r="G202" s="1" t="n">
-        <v>0.00866600188528821</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5011,7 +3793,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C203" s="1" t="n">
         <v>0.75</v>
@@ -5021,12 +3803,6 @@
       </c>
       <c r="E203" s="1" t="n">
         <v>74.25</v>
-      </c>
-      <c r="F203" s="1" t="n">
-        <v>0.512049642404428</v>
-      </c>
-      <c r="G203" s="1" t="n">
-        <v>0.0119997720546081</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,7 +3811,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C204" s="1" t="n">
         <v>0.75</v>
@@ -5045,12 +3821,6 @@
       </c>
       <c r="E204" s="1" t="n">
         <v>138</v>
-      </c>
-      <c r="F204" s="1" t="n">
-        <v>0.576987897382635</v>
-      </c>
-      <c r="G204" s="1" t="n">
-        <v>0.0135215859430105</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5059,7 +3829,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C205" s="1" t="n">
         <v>0.83</v>
@@ -5069,12 +3839,6 @@
       </c>
       <c r="E205" s="1" t="n">
         <v>192.8</v>
-      </c>
-      <c r="F205" s="1" t="n">
-        <v>0.231277825772368</v>
-      </c>
-      <c r="G205" s="1" t="n">
-        <v>0.00541994556918724</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5083,7 +3847,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C206" s="1" t="n">
         <v>0.92</v>
@@ -5093,12 +3857,6 @@
       </c>
       <c r="E206" s="1" t="n">
         <v>150.8</v>
-      </c>
-      <c r="F206" s="1" t="n">
-        <v>0.287040397032117</v>
-      </c>
-      <c r="G206" s="1" t="n">
-        <v>0.00672672930436136</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5107,7 +3865,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C207" s="1" t="n">
         <v>0.92</v>
@@ -5117,12 +3875,6 @@
       </c>
       <c r="E207" s="1" t="n">
         <v>190.1</v>
-      </c>
-      <c r="F207" s="1" t="n">
-        <v>0.281992056111502</v>
-      </c>
-      <c r="G207" s="1" t="n">
-        <v>0.00660842253235217</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5131,7 +3883,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C208" s="1" t="n">
         <v>1.08</v>
@@ -5141,12 +3893,6 @@
       </c>
       <c r="E208" s="1" t="n">
         <v>121.5</v>
-      </c>
-      <c r="F208" s="1" t="n">
-        <v>0.345082543796794</v>
-      </c>
-      <c r="G208" s="1" t="n">
-        <v>0.00808693439593355</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5155,7 +3901,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C209" s="1" t="n">
         <v>1.08</v>
@@ -5165,12 +3911,6 @@
       </c>
       <c r="E209" s="1" t="n">
         <v>194.5</v>
-      </c>
-      <c r="F209" s="1" t="n">
-        <v>0.179899202608198</v>
-      </c>
-      <c r="G209" s="1" t="n">
-        <v>0.00421589870460082</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5179,7 +3919,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C210" s="1" t="n">
         <v>1.17</v>
@@ -5189,12 +3929,6 @@
       </c>
       <c r="E210" s="1" t="n">
         <v>149.8</v>
-      </c>
-      <c r="F210" s="1" t="n">
-        <v>0.288697690658163</v>
-      </c>
-      <c r="G210" s="1" t="n">
-        <v>0.00676556762020653</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5203,7 +3937,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C211" s="1" t="n">
         <v>1.17</v>
@@ -5213,12 +3947,6 @@
       </c>
       <c r="E211" s="1" t="n">
         <v>203.7</v>
-      </c>
-      <c r="F211" s="1" t="n">
-        <v>0.347479085490668</v>
-      </c>
-      <c r="G211" s="1" t="n">
-        <v>0.00814309682954217</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5227,7 +3955,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C212" s="1" t="n">
         <v>1.17</v>
@@ -5237,12 +3965,6 @@
       </c>
       <c r="E212" s="1" t="n">
         <v>167.5</v>
-      </c>
-      <c r="F212" s="1" t="n">
-        <v>0.272409382697878</v>
-      </c>
-      <c r="G212" s="1" t="n">
-        <v>0.00638385466409375</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,7 +3973,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C213" s="1" t="n">
         <v>1.17</v>
@@ -5261,12 +3983,6 @@
       </c>
       <c r="E213" s="1" t="n">
         <v>198.7</v>
-      </c>
-      <c r="F213" s="1" t="n">
-        <v>0.316564138072757</v>
-      </c>
-      <c r="G213" s="1" t="n">
-        <v>0.00741861175744418</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5275,7 +3991,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C214" s="1" t="n">
         <v>1.25</v>
@@ -5285,12 +4001,6 @@
       </c>
       <c r="E214" s="1" t="n">
         <v>105.4</v>
-      </c>
-      <c r="F214" s="1" t="n">
-        <v>0.388217202920025</v>
-      </c>
-      <c r="G214" s="1" t="n">
-        <v>0.00909778575538667</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5299,7 +4009,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C215" s="1" t="n">
         <v>1.25</v>
@@ -5309,12 +4019,6 @@
       </c>
       <c r="E215" s="1" t="n">
         <v>161.4</v>
-      </c>
-      <c r="F215" s="1" t="n">
-        <v>0.270575767141361</v>
-      </c>
-      <c r="G215" s="1" t="n">
-        <v>0.00634088428213886</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5323,7 +4027,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C216" s="1" t="n">
         <v>1.33</v>
@@ -5333,12 +4037,6 @@
       </c>
       <c r="E216" s="1" t="n">
         <v>203.1</v>
-      </c>
-      <c r="F216" s="1" t="n">
-        <v>0.220760341277727</v>
-      </c>
-      <c r="G216" s="1" t="n">
-        <v>0.005173470606465</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5347,7 +4045,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C217" s="1" t="n">
         <v>1.42</v>
@@ -5357,12 +4055,6 @@
       </c>
       <c r="E217" s="1" t="n">
         <v>152.2</v>
-      </c>
-      <c r="F217" s="1" t="n">
-        <v>0.218107359664767</v>
-      </c>
-      <c r="G217" s="1" t="n">
-        <v>0.00511129855910042</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,7 +4063,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C218" s="1" t="n">
         <v>1.42</v>
@@ -5381,12 +4073,6 @@
       </c>
       <c r="E218" s="1" t="n">
         <v>188.6</v>
-      </c>
-      <c r="F218" s="1" t="n">
-        <v>0.235859837253734</v>
-      </c>
-      <c r="G218" s="1" t="n">
-        <v>0.0055273240121636</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5395,7 +4081,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C219" s="1" t="n">
         <v>1.5</v>
@@ -5405,12 +4091,6 @@
       </c>
       <c r="E219" s="1" t="n">
         <v>64.49</v>
-      </c>
-      <c r="F219" s="1" t="n">
-        <v>0.942364758303429</v>
-      </c>
-      <c r="G219" s="1" t="n">
-        <v>0.0220841132489369</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,7 +4099,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C220" s="1" t="n">
         <v>1.5</v>
@@ -5429,12 +4109,6 @@
       </c>
       <c r="E220" s="1" t="n">
         <v>193.6</v>
-      </c>
-      <c r="F220" s="1" t="n">
-        <v>0.172809998859298</v>
-      </c>
-      <c r="G220" s="1" t="n">
-        <v>0.0040497647558766</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5443,7 +4117,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C221" s="1" t="n">
         <v>1.75</v>
@@ -5453,12 +4127,6 @@
       </c>
       <c r="E221" s="1" t="n">
         <v>210.9</v>
-      </c>
-      <c r="F221" s="1" t="n">
-        <v>1.10635672067188</v>
-      </c>
-      <c r="G221" s="1" t="n">
-        <v>0.0259272292366148</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5467,7 +4135,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" s="1" t="n">
         <v>1.75</v>
@@ -5477,12 +4145,6 @@
       </c>
       <c r="E222" s="1" t="n">
         <v>193.1</v>
-      </c>
-      <c r="F222" s="1" t="n">
-        <v>18.9247829809536</v>
-      </c>
-      <c r="G222" s="1" t="n">
-        <v>0.443498175075391</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,7 +4153,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C223" s="1" t="n">
         <v>1.92</v>
@@ -5501,12 +4163,6 @@
       </c>
       <c r="E223" s="1" t="n">
         <v>156.8</v>
-      </c>
-      <c r="F223" s="1" t="n">
-        <v>0.179793640816298</v>
-      </c>
-      <c r="G223" s="1" t="n">
-        <v>0.00421342488695586</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5515,7 +4171,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C224" s="1" t="n">
         <v>1.92</v>
@@ -5525,12 +4181,6 @@
       </c>
       <c r="E224" s="1" t="n">
         <v>171.8</v>
-      </c>
-      <c r="F224" s="1" t="n">
-        <v>0.219777930679514</v>
-      </c>
-      <c r="G224" s="1" t="n">
-        <v>0.0051504480276634</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5539,7 +4189,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" s="1" t="n">
         <v>2</v>
@@ -5549,12 +4199,6 @@
       </c>
       <c r="E225" s="1" t="n">
         <v>164.3</v>
-      </c>
-      <c r="F225" s="1" t="n">
-        <v>0.266395262429098</v>
-      </c>
-      <c r="G225" s="1" t="n">
-        <v>0.00624291506301233</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5563,7 +4207,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C226" s="1" t="n">
         <v>2.08</v>
@@ -5573,12 +4217,6 @@
       </c>
       <c r="E226" s="1" t="n">
         <v>211.9</v>
-      </c>
-      <c r="F226" s="1" t="n">
-        <v>0.358328663357107</v>
-      </c>
-      <c r="G226" s="1" t="n">
-        <v>0.00839735432823829</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5587,7 +4225,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C227" s="1" t="n">
         <v>2.08</v>
@@ -5597,12 +4235,6 @@
       </c>
       <c r="E227" s="1" t="n">
         <v>158.6</v>
-      </c>
-      <c r="F227" s="1" t="n">
-        <v>0.274738527015876</v>
-      </c>
-      <c r="G227" s="1" t="n">
-        <v>0.0064384376548503</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5611,7 +4243,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C228" s="1" t="n">
         <v>2.08</v>
@@ -5621,12 +4253,6 @@
       </c>
       <c r="E228" s="1" t="n">
         <v>253.9</v>
-      </c>
-      <c r="F228" s="1" t="n">
-        <v>0.180317280895725</v>
-      </c>
-      <c r="G228" s="1" t="n">
-        <v>0.00422569627838243</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5635,7 +4261,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" s="1" t="n">
         <v>2.08</v>
@@ -5645,12 +4271,6 @@
       </c>
       <c r="E229" s="1" t="n">
         <v>140.3</v>
-      </c>
-      <c r="F229" s="1" t="n">
-        <v>0.305451812434472</v>
-      </c>
-      <c r="G229" s="1" t="n">
-        <v>0.00715819682183394</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5659,7 +4279,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C230" s="1" t="n">
         <v>2.17</v>
@@ -5669,12 +4289,6 @@
       </c>
       <c r="E230" s="1" t="n">
         <v>182.9</v>
-      </c>
-      <c r="F230" s="1" t="n">
-        <v>0.242376692343267</v>
-      </c>
-      <c r="G230" s="1" t="n">
-        <v>0.00568004509447917</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5683,7 +4297,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C231" s="1" t="n">
         <v>2.17</v>
@@ -5693,12 +4307,6 @@
       </c>
       <c r="E231" s="1" t="n">
         <v>181</v>
-      </c>
-      <c r="F231" s="1" t="n">
-        <v>0.273013656013783</v>
-      </c>
-      <c r="G231" s="1" t="n">
-        <v>0.00639801567788822</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5707,7 +4315,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" s="1" t="n">
         <v>2.17</v>
@@ -5717,12 +4325,6 @@
       </c>
       <c r="E232" s="1" t="n">
         <v>92.39</v>
-      </c>
-      <c r="F232" s="1" t="n">
-        <v>0.431835229712224</v>
-      </c>
-      <c r="G232" s="1" t="n">
-        <v>0.0101199647310821</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5731,7 +4333,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C233" s="1" t="n">
         <v>2.17</v>
@@ -5741,12 +4343,6 @@
       </c>
       <c r="E233" s="1" t="n">
         <v>167.8</v>
-      </c>
-      <c r="F233" s="1" t="n">
-        <v>0.294478578461512</v>
-      </c>
-      <c r="G233" s="1" t="n">
-        <v>0.00690104146916326</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5755,7 +4351,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" s="1" t="n">
         <v>2.25</v>
@@ -5765,12 +4361,6 @@
       </c>
       <c r="E234" s="1" t="n">
         <v>165.9</v>
-      </c>
-      <c r="F234" s="1" t="n">
-        <v>0.26414360532805</v>
-      </c>
-      <c r="G234" s="1" t="n">
-        <v>0.00619014796833994</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5779,7 +4369,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C235" s="1" t="n">
         <v>2.33</v>
@@ -5789,12 +4379,6 @@
       </c>
       <c r="E235" s="1" t="n">
         <v>201.7</v>
-      </c>
-      <c r="F235" s="1" t="n">
-        <v>0.236797293693977</v>
-      </c>
-      <c r="G235" s="1" t="n">
-        <v>0.00554929310004582</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5803,7 +4387,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C236" s="1" t="n">
         <v>2.33</v>
@@ -5813,12 +4397,6 @@
       </c>
       <c r="E236" s="1" t="n">
         <v>179.3</v>
-      </c>
-      <c r="F236" s="1" t="n">
-        <v>0.204738001846417</v>
-      </c>
-      <c r="G236" s="1" t="n">
-        <v>0.00479799056500951</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5827,7 +4405,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C237" s="1" t="n">
         <v>2.42</v>
@@ -5837,12 +4415,6 @@
       </c>
       <c r="E237" s="1" t="n">
         <v>139.1</v>
-      </c>
-      <c r="F237" s="1" t="n">
-        <v>4.77532817951571</v>
-      </c>
-      <c r="G237" s="1" t="n">
-        <v>0.111908777772129</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5851,7 +4423,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C238" s="1" t="n">
         <v>2.42</v>
@@ -5861,12 +4433,6 @@
       </c>
       <c r="E238" s="1" t="n">
         <v>69.43</v>
-      </c>
-      <c r="F238" s="1" t="n">
-        <v>1.61720391999226</v>
-      </c>
-      <c r="G238" s="1" t="n">
-        <v>0.0378988222989491</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5875,7 +4441,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C239" s="1" t="n">
         <v>2.5</v>
@@ -5885,12 +4451,6 @@
       </c>
       <c r="E239" s="1" t="n">
         <v>133.6</v>
-      </c>
-      <c r="F239" s="1" t="n">
-        <v>0.240760306105303</v>
-      </c>
-      <c r="G239" s="1" t="n">
-        <v>0.00564216543438079</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5899,7 +4459,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240" s="1" t="n">
         <v>2.5</v>
@@ -5909,12 +4469,6 @@
       </c>
       <c r="E240" s="1" t="n">
         <v>196.6</v>
-      </c>
-      <c r="F240" s="1" t="n">
-        <v>0.227282945774638</v>
-      </c>
-      <c r="G240" s="1" t="n">
-        <v>0.00532632642489261</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5923,7 +4477,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C241" s="1" t="n">
         <v>2.67</v>
@@ -5933,12 +4487,6 @@
       </c>
       <c r="E241" s="1" t="n">
         <v>150.5</v>
-      </c>
-      <c r="F241" s="1" t="n">
-        <v>0.28753558384579</v>
-      </c>
-      <c r="G241" s="1" t="n">
-        <v>0.00673833389969047</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5947,7 +4495,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C242" s="1" t="n">
         <v>2.67</v>
@@ -5957,12 +4505,6 @@
       </c>
       <c r="E242" s="1" t="n">
         <v>171.2</v>
-      </c>
-      <c r="F242" s="1" t="n">
-        <v>0.256949449461919</v>
-      </c>
-      <c r="G242" s="1" t="n">
-        <v>0.0060215544895641</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5971,7 +4513,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C243" s="1" t="n">
         <v>2.75</v>
@@ -5981,12 +4523,6 @@
       </c>
       <c r="E243" s="1" t="n">
         <v>147.3</v>
-      </c>
-      <c r="F243" s="1" t="n">
-        <v>0.292925874240536</v>
-      </c>
-      <c r="G243" s="1" t="n">
-        <v>0.00686465418328908</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5995,7 +4531,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C244" s="1" t="n">
         <v>2.75</v>
@@ -6005,12 +4541,6 @@
       </c>
       <c r="E244" s="1" t="n">
         <v>168</v>
-      </c>
-      <c r="F244" s="1" t="n">
-        <v>0.200103267931226</v>
-      </c>
-      <c r="G244" s="1" t="n">
-        <v>0.00468937658325785</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6019,7 +4549,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" s="1" t="n">
         <v>2.83</v>
@@ -6029,12 +4559,6 @@
       </c>
       <c r="E245" s="1" t="n">
         <v>178.5</v>
-      </c>
-      <c r="F245" s="1" t="n">
-        <v>0.247658897234386</v>
-      </c>
-      <c r="G245" s="1" t="n">
-        <v>0.00580383241779714</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6043,7 +4567,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C246" s="1" t="n">
         <v>3</v>
@@ -6053,12 +4577,6 @@
       </c>
       <c r="E246" s="1" t="n">
         <v>130.8</v>
-      </c>
-      <c r="F246" s="1" t="n">
-        <v>0.498801410982969</v>
-      </c>
-      <c r="G246" s="1" t="n">
-        <v>0.0116893026312965</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6067,7 +4585,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C247" s="1" t="n">
         <v>3</v>
@@ -6077,12 +4595,6 @@
       </c>
       <c r="E247" s="1" t="n">
         <v>155.3</v>
-      </c>
-      <c r="F247" s="1" t="n">
-        <v>0.279812105138652</v>
-      </c>
-      <c r="G247" s="1" t="n">
-        <v>0.00655733585520579</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6091,7 +4603,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" s="1" t="n">
         <v>3</v>
@@ -6101,12 +4613,6 @@
       </c>
       <c r="E248" s="1" t="n">
         <v>51.89</v>
-      </c>
-      <c r="F248" s="1" t="n">
-        <v>0.664095769990528</v>
-      </c>
-      <c r="G248" s="1" t="n">
-        <v>0.0155629400010824</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6115,7 +4621,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C249" s="1" t="n">
         <v>3</v>
@@ -6125,12 +4631,6 @@
       </c>
       <c r="E249" s="1" t="n">
         <v>177.6</v>
-      </c>
-      <c r="F249" s="1" t="n">
-        <v>0.248767837441834</v>
-      </c>
-      <c r="G249" s="1" t="n">
-        <v>0.00582982019048472</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6139,7 +4639,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C250" s="1" t="n">
         <v>3</v>
@@ -6149,12 +4649,6 @@
       </c>
       <c r="E250" s="1" t="n">
         <v>176.5</v>
-      </c>
-      <c r="F250" s="1" t="n">
-        <v>0.250136769145864</v>
-      </c>
-      <c r="G250" s="1" t="n">
-        <v>0.00586190080737481</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6163,7 +4657,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C251" s="1" t="n">
         <v>3</v>
@@ -6173,12 +4667,6 @@
       </c>
       <c r="E251" s="1" t="n">
         <v>219.6</v>
-      </c>
-      <c r="F251" s="1" t="n">
-        <v>0.336268011943825</v>
-      </c>
-      <c r="G251" s="1" t="n">
-        <v>0.00788036775816181</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6187,7 +4675,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C252" s="1" t="n">
         <v>3</v>
@@ -6197,12 +4685,6 @@
       </c>
       <c r="E252" s="1" t="n">
         <v>178.1</v>
-      </c>
-      <c r="F252" s="1" t="n">
-        <v>0.248150536578924</v>
-      </c>
-      <c r="G252" s="1" t="n">
-        <v>0.00581535387895826</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6211,7 +4693,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C253" s="1" t="n">
         <v>3</v>
@@ -6221,12 +4703,6 @@
       </c>
       <c r="E253" s="1" t="n">
         <v>154.1</v>
-      </c>
-      <c r="F253" s="1" t="n">
-        <v>0.456993084759023</v>
-      </c>
-      <c r="G253" s="1" t="n">
-        <v>0.0107095335950049</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6235,7 +4711,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C254" s="1" t="n">
         <v>3</v>
@@ -6245,12 +4721,6 @@
       </c>
       <c r="E254" s="1" t="n">
         <v>151.5</v>
-      </c>
-      <c r="F254" s="1" t="n">
-        <v>0.285891567213072</v>
-      </c>
-      <c r="G254" s="1" t="n">
-        <v>0.00669980672729764</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6259,7 +4729,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C255" s="1" t="n">
         <v>3</v>
@@ -6269,12 +4739,6 @@
       </c>
       <c r="E255" s="1" t="n">
         <v>107.3</v>
-      </c>
-      <c r="F255" s="1" t="n">
-        <v>0.518062460854062</v>
-      </c>
-      <c r="G255" s="1" t="n">
-        <v>0.0121406811478408</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6283,7 +4747,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C256" s="1" t="n">
         <v>3</v>
@@ -6293,12 +4757,6 @@
       </c>
       <c r="E256" s="1" t="n">
         <v>103.8</v>
-      </c>
-      <c r="F256" s="1" t="n">
-        <v>0.695959388867279</v>
-      </c>
-      <c r="G256" s="1" t="n">
-        <v>0.0163096569825854</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6307,7 +4765,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C257" s="1" t="n">
         <v>3</v>
@@ -6317,12 +4775,6 @@
       </c>
       <c r="E257" s="1" t="n">
         <v>79.7</v>
-      </c>
-      <c r="F257" s="1" t="n">
-        <v>0.184251178080688</v>
-      </c>
-      <c r="G257" s="1" t="n">
-        <v>0.00431788630371699</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6331,7 +4783,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C258" s="1" t="n">
         <v>4</v>
@@ -6341,12 +4793,6 @@
       </c>
       <c r="E258" s="1" t="n">
         <v>192.1</v>
-      </c>
-      <c r="F258" s="1" t="n">
-        <v>0.232029091449651</v>
-      </c>
-      <c r="G258" s="1" t="n">
-        <v>0.00543755131701573</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6355,7 +4801,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C259" s="1" t="n">
         <v>4</v>
@@ -6365,12 +4811,6 @@
       </c>
       <c r="E259" s="1" t="n">
         <v>157.8</v>
-      </c>
-      <c r="F259" s="1" t="n">
-        <v>0.275951516122146</v>
-      </c>
-      <c r="G259" s="1" t="n">
-        <v>0.00646686379086248</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6379,7 +4819,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C260" s="1" t="n">
         <v>4</v>
@@ -6389,12 +4829,6 @@
       </c>
       <c r="E260" s="1" t="n">
         <v>232</v>
-      </c>
-      <c r="F260" s="1" t="n">
-        <v>1.69383549209209</v>
-      </c>
-      <c r="G260" s="1" t="n">
-        <v>0.0396946665320712</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6403,7 +4837,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C261" s="1" t="n">
         <v>4</v>
@@ -6413,12 +4847,6 @@
       </c>
       <c r="E261" s="1" t="n">
         <v>163</v>
-      </c>
-      <c r="F261" s="1" t="n">
-        <v>0.228543790582141</v>
-      </c>
-      <c r="G261" s="1" t="n">
-        <v>0.00535587404885973</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6427,7 +4855,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C262" s="1" t="n">
         <v>4</v>
@@ -6437,12 +4865,6 @@
       </c>
       <c r="E262" s="1" t="n">
         <v>97.29</v>
-      </c>
-      <c r="F262" s="1" t="n">
-        <v>0.414303439385671</v>
-      </c>
-      <c r="G262" s="1" t="n">
-        <v>0.00970911103603811</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6451,7 +4873,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C263" s="1" t="n">
         <v>4</v>
@@ -6461,12 +4883,6 @@
       </c>
       <c r="E263" s="1" t="n">
         <v>90.16</v>
-      </c>
-      <c r="F263" s="1" t="n">
-        <v>0.440314872965413</v>
-      </c>
-      <c r="G263" s="1" t="n">
-        <v>0.0103186833273199</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6475,7 +4891,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C264" s="1" t="n">
         <v>4</v>
@@ -6485,12 +4901,6 @@
       </c>
       <c r="E264" s="1" t="n">
         <v>124.3</v>
-      </c>
-      <c r="F264" s="1" t="n">
-        <v>0.338540730199313</v>
-      </c>
-      <c r="G264" s="1" t="n">
-        <v>0.00793362841640999</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6499,7 +4909,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C265" s="1" t="n">
         <v>4</v>
@@ -6509,12 +4919,6 @@
       </c>
       <c r="E265" s="1" t="n">
         <v>145.6</v>
-      </c>
-      <c r="F265" s="1" t="n">
-        <v>0.273380886678339</v>
-      </c>
-      <c r="G265" s="1" t="n">
-        <v>0.00640662164867933</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6523,7 +4927,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C266" s="1" t="n">
         <v>4</v>
@@ -6533,12 +4937,6 @@
       </c>
       <c r="E266" s="1" t="n">
         <v>174.4</v>
-      </c>
-      <c r="F266" s="1" t="n">
-        <v>0.252792463421792</v>
-      </c>
-      <c r="G266" s="1" t="n">
-        <v>0.00592413642540635</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6547,7 +4945,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C267" s="1" t="n">
         <v>4</v>
@@ -6557,12 +4955,6 @@
       </c>
       <c r="E267" s="1" t="n">
         <v>147.8</v>
-      </c>
-      <c r="F267" s="1" t="n">
-        <v>0.484332987996771</v>
-      </c>
-      <c r="G267" s="1" t="n">
-        <v>0.0113502382839243</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6571,7 +4963,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C268" s="1" t="n">
         <v>4</v>
@@ -6581,12 +4973,6 @@
       </c>
       <c r="E268" s="1" t="n">
         <v>145.1</v>
-      </c>
-      <c r="F268" s="1" t="n">
-        <v>0.31930969173784</v>
-      </c>
-      <c r="G268" s="1" t="n">
-        <v>0.0074829532107259</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6595,7 +4981,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C269" s="1" t="n">
         <v>4</v>
@@ -6605,12 +4991,6 @@
       </c>
       <c r="E269" s="1" t="n">
         <v>190.8</v>
-      </c>
-      <c r="F269" s="1" t="n">
-        <v>0.233437326218103</v>
-      </c>
-      <c r="G269" s="1" t="n">
-        <v>0.0054705529926764</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6619,7 +4999,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C270" s="1" t="n">
         <v>4</v>
@@ -6629,12 +5009,6 @@
       </c>
       <c r="E270" s="1" t="n">
         <v>92.87</v>
-      </c>
-      <c r="F270" s="1" t="n">
-        <v>0.430052551195104</v>
-      </c>
-      <c r="G270" s="1" t="n">
-        <v>0.0100781880475722</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6643,7 +5017,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C271" s="1" t="n">
         <v>4</v>
@@ -6653,12 +5027,6 @@
       </c>
       <c r="E271" s="1" t="n">
         <v>185.2</v>
-      </c>
-      <c r="F271" s="1" t="n">
-        <v>21.5903860744474</v>
-      </c>
-      <c r="G271" s="1" t="n">
-        <v>0.505966004092485</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6667,7 +5035,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C272" s="1" t="n">
         <v>5</v>
@@ -6677,12 +5045,6 @@
       </c>
       <c r="E272" s="1" t="n">
         <v>169</v>
-      </c>
-      <c r="F272" s="1" t="n">
-        <v>0.351396248425189</v>
-      </c>
-      <c r="G272" s="1" t="n">
-        <v>0.00823489469135552</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6691,7 +5053,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C273" s="1" t="n">
         <v>5</v>
@@ -6701,12 +5063,6 @@
       </c>
       <c r="E273" s="1" t="n">
         <v>175</v>
-      </c>
-      <c r="F273" s="1" t="n">
-        <v>0.374554000579231</v>
-      </c>
-      <c r="G273" s="1" t="n">
-        <v>0.00877759157879154</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6715,7 +5071,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C274" s="1" t="n">
         <v>5</v>
@@ -6725,12 +5081,6 @@
       </c>
       <c r="E274" s="1" t="n">
         <v>178.7</v>
-      </c>
-      <c r="F274" s="1" t="n">
-        <v>0.371656344405717</v>
-      </c>
-      <c r="G274" s="1" t="n">
-        <v>0.00870968563629049</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6739,7 +5089,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C275" s="1" t="n">
         <v>5</v>
@@ -6749,12 +5099,6 @@
       </c>
       <c r="E275" s="1" t="n">
         <v>172.7</v>
-      </c>
-      <c r="F275" s="1" t="n">
-        <v>0.37843733199569</v>
-      </c>
-      <c r="G275" s="1" t="n">
-        <v>0.00886859660633377</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6763,7 +5107,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C276" s="1" t="n">
         <v>5</v>
@@ -6773,12 +5117,6 @@
       </c>
       <c r="E276" s="1" t="n">
         <v>168.8</v>
-      </c>
-      <c r="F276" s="1" t="n">
-        <v>0.263280645115053</v>
-      </c>
-      <c r="G276" s="1" t="n">
-        <v>0.00616992468334843</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6787,7 +5125,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C277" s="1" t="n">
         <v>5</v>
@@ -6797,12 +5135,6 @@
       </c>
       <c r="E277" s="1" t="n">
         <v>170.9</v>
-      </c>
-      <c r="F277" s="1" t="n">
-        <v>0.257346186932372</v>
-      </c>
-      <c r="G277" s="1" t="n">
-        <v>0.00603085194593689</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6811,7 +5143,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C278" s="1" t="n">
         <v>5</v>
@@ -6821,12 +5153,6 @@
       </c>
       <c r="E278" s="1" t="n">
         <v>97.47</v>
-      </c>
-      <c r="F278" s="1" t="n">
-        <v>0.453414894862532</v>
-      </c>
-      <c r="G278" s="1" t="n">
-        <v>0.010625679492648</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6835,7 +5161,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C279" s="1" t="n">
         <v>5</v>
@@ -6845,12 +5171,6 @@
       </c>
       <c r="E279" s="1" t="n">
         <v>168.4</v>
-      </c>
-      <c r="F279" s="1" t="n">
-        <v>0.260700596677272</v>
-      </c>
-      <c r="G279" s="1" t="n">
-        <v>0.00610946180908911</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6859,7 +5179,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C280" s="1" t="n">
         <v>5</v>
@@ -6869,12 +5189,6 @@
       </c>
       <c r="E280" s="1" t="n">
         <v>173.7</v>
-      </c>
-      <c r="F280" s="1" t="n">
-        <v>0.19989846052606</v>
-      </c>
-      <c r="G280" s="1" t="n">
-        <v>0.00468457696624114</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6883,7 +5197,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C281" s="1" t="n">
         <v>6</v>
@@ -6893,12 +5207,6 @@
       </c>
       <c r="E281" s="1" t="n">
         <v>166.2</v>
-      </c>
-      <c r="F281" s="1" t="n">
-        <v>0.527573229242679</v>
-      </c>
-      <c r="G281" s="1" t="n">
-        <v>0.0123635639374697</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6907,7 +5215,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C282" s="1" t="n">
         <v>6</v>
@@ -6917,12 +5225,6 @@
       </c>
       <c r="E282" s="1" t="n">
         <v>81.52</v>
-      </c>
-      <c r="F282" s="1" t="n">
-        <v>0.476571956296833</v>
-      </c>
-      <c r="G282" s="1" t="n">
-        <v>0.0111683601932171</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6931,7 +5233,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C283" s="1" t="n">
         <v>6</v>
@@ -6941,12 +5243,6 @@
       </c>
       <c r="E283" s="1" t="n">
         <v>85.04</v>
-      </c>
-      <c r="F283" s="1" t="n">
-        <v>0.461103229196889</v>
-      </c>
-      <c r="G283" s="1" t="n">
-        <v>0.0108058539363967</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6955,7 +5251,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C284" s="1" t="n">
         <v>6</v>
@@ -6965,12 +5261,6 @@
       </c>
       <c r="E284" s="1" t="n">
         <v>101.1</v>
-      </c>
-      <c r="F284" s="1" t="n">
-        <v>0.401625153348675</v>
-      </c>
-      <c r="G284" s="1" t="n">
-        <v>0.00941199815891025</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6979,7 +5269,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C285" s="1" t="n">
         <v>6</v>
@@ -6989,12 +5279,6 @@
       </c>
       <c r="E285" s="1" t="n">
         <v>176.3</v>
-      </c>
-      <c r="F285" s="1" t="n">
-        <v>0.641212503077006</v>
-      </c>
-      <c r="G285" s="1" t="n">
-        <v>0.0150266756155872</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7003,7 +5287,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C286" s="1" t="n">
         <v>6</v>
@@ -7013,12 +5297,6 @@
       </c>
       <c r="E286" s="1" t="n">
         <v>156.9</v>
-      </c>
-      <c r="F286" s="1" t="n">
-        <v>0.277328995133335</v>
-      </c>
-      <c r="G286" s="1" t="n">
-        <v>0.00649914471203772</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7027,7 +5305,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C287" s="1" t="n">
         <v>6</v>
@@ -7037,12 +5315,6 @@
       </c>
       <c r="E287" s="1" t="n">
         <v>124.3</v>
-      </c>
-      <c r="F287" s="1" t="n">
-        <v>0.667787176271429</v>
-      </c>
-      <c r="G287" s="1" t="n">
-        <v>0.0156494473047957</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7051,7 +5323,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C288" s="1" t="n">
         <v>6</v>
@@ -7061,12 +5333,6 @@
       </c>
       <c r="E288" s="1" t="n">
         <v>180</v>
-      </c>
-      <c r="F288" s="1" t="n">
-        <v>0.409616231540328</v>
-      </c>
-      <c r="G288" s="1" t="n">
-        <v>0.00959926733914074</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7075,7 +5341,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C289" s="1" t="n">
         <v>6</v>
@@ -7085,12 +5351,6 @@
       </c>
       <c r="E289" s="1" t="n">
         <v>178.9</v>
-      </c>
-      <c r="F289" s="1" t="n">
-        <v>0.247169202068023</v>
-      </c>
-      <c r="G289" s="1" t="n">
-        <v>0.0057923565180289</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7099,7 +5359,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C290" s="1" t="n">
         <v>6</v>
@@ -7109,12 +5369,6 @@
       </c>
       <c r="E290" s="1" t="n">
         <v>128.9</v>
-      </c>
-      <c r="F290" s="1" t="n">
-        <v>1.16305782493278</v>
-      </c>
-      <c r="G290" s="1" t="n">
-        <v>0.0272560072886421</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7123,7 +5377,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C291" s="1" t="n">
         <v>6</v>
@@ -7133,12 +5387,6 @@
       </c>
       <c r="E291" s="1" t="n">
         <v>97.78</v>
-      </c>
-      <c r="F291" s="1" t="n">
-        <v>0.56537029240689</v>
-      </c>
-      <c r="G291" s="1" t="n">
-        <v>0.0132493298959702</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7147,7 +5395,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C292" s="1" t="n">
         <v>6</v>
@@ -7157,12 +5405,6 @@
       </c>
       <c r="E292" s="1" t="n">
         <v>155.3</v>
-      </c>
-      <c r="F292" s="1" t="n">
-        <v>0.279812105138652</v>
-      </c>
-      <c r="G292" s="1" t="n">
-        <v>0.00655733585520579</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7171,7 +5413,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C293" s="1" t="n">
         <v>6</v>
@@ -7181,12 +5423,6 @@
       </c>
       <c r="E293" s="1" t="n">
         <v>202.8</v>
-      </c>
-      <c r="F293" s="1" t="n">
-        <v>0.221053133171447</v>
-      </c>
-      <c r="G293" s="1" t="n">
-        <v>0.0051803321208439</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7195,7 +5431,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C294" s="1" t="n">
         <v>6</v>
@@ -7205,12 +5441,6 @@
       </c>
       <c r="E294" s="1" t="n">
         <v>173.7</v>
-      </c>
-      <c r="F294" s="1" t="n">
-        <v>0.253690270272696</v>
-      </c>
-      <c r="G294" s="1" t="n">
-        <v>0.00594517633378189</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7219,7 +5449,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C295" s="1" t="n">
         <v>6</v>
@@ -7229,12 +5459,6 @@
       </c>
       <c r="E295" s="1" t="n">
         <v>147.7</v>
-      </c>
-      <c r="F295" s="1" t="n">
-        <v>0.292241061968209</v>
-      </c>
-      <c r="G295" s="1" t="n">
-        <v>0.00684860575655932</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7243,7 +5467,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C296" s="1" t="n">
         <v>6</v>
@@ -7253,12 +5477,6 @@
       </c>
       <c r="E296" s="1" t="n">
         <v>144.5</v>
-      </c>
-      <c r="F296" s="1" t="n">
-        <v>0.297810919850499</v>
-      </c>
-      <c r="G296" s="1" t="n">
-        <v>0.00697913416519214</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7267,7 +5485,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C297" s="1" t="n">
         <v>6</v>
@@ -7277,12 +5495,6 @@
       </c>
       <c r="E297" s="1" t="n">
         <v>190.9</v>
-      </c>
-      <c r="F297" s="1" t="n">
-        <v>0.588173329088653</v>
-      </c>
-      <c r="G297" s="1" t="n">
-        <v>0.0137837141034254</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7291,7 +5503,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C298" s="1" t="n">
         <v>7</v>
@@ -7301,12 +5513,6 @@
       </c>
       <c r="E298" s="1" t="n">
         <v>99.89</v>
-      </c>
-      <c r="F298" s="1" t="n">
-        <v>2.657239195208</v>
-      </c>
-      <c r="G298" s="1" t="n">
-        <v>0.0622718228790049</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7315,7 +5521,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C299" s="1" t="n">
         <v>7</v>
@@ -7325,12 +5531,6 @@
       </c>
       <c r="E299" s="1" t="n">
         <v>80.36</v>
-      </c>
-      <c r="F299" s="1" t="n">
-        <v>0.481899489794352</v>
-      </c>
-      <c r="G299" s="1" t="n">
-        <v>0.011293209782572</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7339,7 +5539,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C300" s="1" t="n">
         <v>7</v>
@@ -7349,12 +5549,6 @@
       </c>
       <c r="E300" s="1" t="n">
         <v>199.5</v>
-      </c>
-      <c r="F300" s="1" t="n">
-        <v>59.5099259027163</v>
-      </c>
-      <c r="G300" s="1" t="n">
-        <v>1.39460217658974</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7363,7 +5557,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C301" s="1" t="n">
         <v>7</v>
@@ -7373,12 +5567,6 @@
       </c>
       <c r="E301" s="1" t="n">
         <v>187.3</v>
-      </c>
-      <c r="F301" s="1" t="n">
-        <v>0.237315099696198</v>
-      </c>
-      <c r="G301" s="1" t="n">
-        <v>0.00556142777114133</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7387,7 +5575,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C302" s="1" t="n">
         <v>7</v>
@@ -7397,12 +5585,6 @@
       </c>
       <c r="E302" s="1" t="n">
         <v>199.1</v>
-      </c>
-      <c r="F302" s="1" t="n">
-        <v>0.394234694895901</v>
-      </c>
-      <c r="G302" s="1" t="n">
-        <v>0.00923880437169089</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7411,7 +5593,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C303" s="1" t="n">
         <v>7</v>
@@ -7421,12 +5603,6 @@
       </c>
       <c r="E303" s="1" t="n">
         <v>92.38</v>
-      </c>
-      <c r="F303" s="1" t="n">
-        <v>0.435328705715497</v>
-      </c>
-      <c r="G303" s="1" t="n">
-        <v>0.0102018335817675</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7435,7 +5611,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C304" s="1" t="n">
         <v>7</v>
@@ -7445,12 +5621,6 @@
       </c>
       <c r="E304" s="1" t="n">
         <v>88.94</v>
-      </c>
-      <c r="F304" s="1" t="n">
-        <v>0.606298608765361</v>
-      </c>
-      <c r="G304" s="1" t="n">
-        <v>0.0142084760923709</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7459,7 +5629,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C305" s="1" t="n">
         <v>7</v>
@@ -7469,12 +5639,6 @@
       </c>
       <c r="E305" s="1" t="n">
         <v>182</v>
-      </c>
-      <c r="F305" s="1" t="n">
-        <v>0.262918367335568</v>
-      </c>
-      <c r="G305" s="1" t="n">
-        <v>0.00616143478234221</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7483,7 +5647,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C306" s="1" t="n">
         <v>7</v>
@@ -7493,12 +5657,6 @@
       </c>
       <c r="E306" s="1" t="n">
         <v>131</v>
-      </c>
-      <c r="F306" s="1" t="n">
-        <v>0.725671591503451</v>
-      </c>
-      <c r="G306" s="1" t="n">
-        <v>0.0170059559921896</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7507,7 +5665,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C307" s="1" t="n">
         <v>7</v>
@@ -7517,12 +5675,6 @@
       </c>
       <c r="E307" s="1" t="n">
         <v>168.2</v>
-      </c>
-      <c r="F307" s="1" t="n">
-        <v>0.804179106298201</v>
-      </c>
-      <c r="G307" s="1" t="n">
-        <v>0.0188457625345535</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7531,7 +5683,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C308" s="1" t="n">
         <v>7</v>
@@ -7541,12 +5693,6 @@
       </c>
       <c r="E308" s="1" t="n">
         <v>99.92</v>
-      </c>
-      <c r="F308" s="1" t="n">
-        <v>0.682149991754984</v>
-      </c>
-      <c r="G308" s="1" t="n">
-        <v>0.0159860367633016</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7555,7 +5701,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C309" s="1" t="n">
         <v>7</v>
@@ -7565,12 +5711,6 @@
       </c>
       <c r="E309" s="1" t="n">
         <v>124.7</v>
-      </c>
-      <c r="F309" s="1" t="n">
-        <v>0.337626376941013</v>
-      </c>
-      <c r="G309" s="1" t="n">
-        <v>0.00791220074657417</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7579,7 +5719,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C310" s="1" t="n">
         <v>7</v>
@@ -7589,12 +5729,6 @@
       </c>
       <c r="E310" s="1" t="n">
         <v>200</v>
-      </c>
-      <c r="F310" s="1" t="n">
-        <v>0.316960885172238</v>
-      </c>
-      <c r="G310" s="1" t="n">
-        <v>0.00742790943947114</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7603,7 +5737,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C311" s="1" t="n">
         <v>7</v>
@@ -7613,12 +5747,6 @@
       </c>
       <c r="E311" s="1" t="n">
         <v>25.07</v>
-      </c>
-      <c r="F311" s="1" t="n">
-        <v>1.03137541652481</v>
-      </c>
-      <c r="G311" s="1" t="n">
-        <v>0.024170058674212</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7627,7 +5755,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C312" s="1" t="n">
         <v>7</v>
@@ -7637,12 +5765,6 @@
       </c>
       <c r="E312" s="1" t="n">
         <v>74.39</v>
-      </c>
-      <c r="F312" s="1" t="n">
-        <v>0.913490598392543</v>
-      </c>
-      <c r="G312" s="1" t="n">
-        <v>0.0214074535884166</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7651,7 +5773,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C313" s="1" t="n">
         <v>8</v>
@@ -7661,12 +5783,6 @@
       </c>
       <c r="E313" s="1" t="n">
         <v>144.8</v>
-      </c>
-      <c r="F313" s="1" t="n">
-        <v>0.297279742969661</v>
-      </c>
-      <c r="G313" s="1" t="n">
-        <v>0.00696668615046292</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7675,7 +5791,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C314" s="1" t="n">
         <v>8</v>
@@ -7685,12 +5801,6 @@
       </c>
       <c r="E314" s="1" t="n">
         <v>73.46</v>
-      </c>
-      <c r="F314" s="1" t="n">
-        <v>1.07420309572928</v>
-      </c>
-      <c r="G314" s="1" t="n">
-        <v>0.0251737160260035</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7699,7 +5809,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C315" s="1" t="n">
         <v>8</v>
@@ -7709,12 +5819,6 @@
       </c>
       <c r="E315" s="1" t="n">
         <v>200</v>
-      </c>
-      <c r="F315" s="1" t="n">
-        <v>0.747922019594595</v>
-      </c>
-      <c r="G315" s="1" t="n">
-        <v>0.017527389937456</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7723,7 +5827,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C316" s="1" t="n">
         <v>8</v>
@@ -7733,12 +5837,6 @@
       </c>
       <c r="E316" s="1" t="n">
         <v>107.4</v>
-      </c>
-      <c r="F316" s="1" t="n">
-        <v>1.4462845778597</v>
-      </c>
-      <c r="G316" s="1" t="n">
-        <v>0.0338933646724513</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7747,7 +5845,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C317" s="1" t="n">
         <v>8</v>
@@ -7757,12 +5855,6 @@
       </c>
       <c r="E317" s="1" t="n">
         <v>47.5</v>
-      </c>
-      <c r="F317" s="1" t="n">
-        <v>1.79252471935073</v>
-      </c>
-      <c r="G317" s="1" t="n">
-        <v>0.0420074271186976</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7771,7 +5863,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C318" s="1" t="n">
         <v>8</v>
@@ -7781,12 +5873,6 @@
       </c>
       <c r="E318" s="1" t="n">
         <v>190</v>
-      </c>
-      <c r="F318" s="1" t="n">
-        <v>2.24403272820092</v>
-      </c>
-      <c r="G318" s="1" t="n">
-        <v>0.0525884191521868</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7795,7 +5881,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C319" s="1" t="n">
         <v>8</v>
@@ -7805,12 +5891,6 @@
       </c>
       <c r="E319" s="1" t="n">
         <v>117.5</v>
-      </c>
-      <c r="F319" s="1" t="n">
-        <v>1.4278889963052</v>
-      </c>
-      <c r="G319" s="1" t="n">
-        <v>0.033462268217761</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7819,7 +5899,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C320" s="1" t="n">
         <v>8</v>
@@ -7829,12 +5909,6 @@
       </c>
       <c r="E320" s="1" t="n">
         <v>130.3</v>
-      </c>
-      <c r="F320" s="1" t="n">
-        <v>0.525163636337642</v>
-      </c>
-      <c r="G320" s="1" t="n">
-        <v>0.0123070956515647</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7843,7 +5917,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C321" s="1" t="n">
         <v>8</v>
@@ -7853,12 +5927,6 @@
       </c>
       <c r="E321" s="1" t="n">
         <v>181.9</v>
-      </c>
-      <c r="F321" s="1" t="n">
-        <v>0.317132283096837</v>
-      </c>
-      <c r="G321" s="1" t="n">
-        <v>0.00743192611257371</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7867,7 +5935,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C322" s="1" t="n">
         <v>9</v>
@@ -7877,12 +5945,6 @@
       </c>
       <c r="E322" s="1" t="n">
         <v>79.65</v>
-      </c>
-      <c r="F322" s="1" t="n">
-        <v>2.00144403187155</v>
-      </c>
-      <c r="G322" s="1" t="n">
-        <v>0.0469034057903812</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7891,7 +5953,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C323" s="1" t="n">
         <v>9</v>
@@ -7901,12 +5963,6 @@
       </c>
       <c r="E323" s="1" t="n">
         <v>127.7</v>
-      </c>
-      <c r="F323" s="1" t="n">
-        <v>2.16095217150838</v>
-      </c>
-      <c r="G323" s="1" t="n">
-        <v>0.0506414443670877</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7915,7 +5971,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C324" s="1" t="n">
         <v>9</v>
@@ -7925,12 +5981,6 @@
       </c>
       <c r="E324" s="1" t="n">
         <v>62.03</v>
-      </c>
-      <c r="F324" s="1" t="n">
-        <v>1.96852897132485</v>
-      </c>
-      <c r="G324" s="1" t="n">
-        <v>0.0461320485019172</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7939,7 +5989,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C325" s="1" t="n">
         <v>9</v>
@@ -7949,12 +5999,6 @@
       </c>
       <c r="E325" s="1" t="n">
         <v>53.12</v>
-      </c>
-      <c r="F325" s="1" t="n">
-        <v>2.64346933380523</v>
-      </c>
-      <c r="G325" s="1" t="n">
-        <v>0.061949129170479</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7963,7 +6007,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C326" s="1" t="n">
         <v>9</v>
@@ -7973,12 +6017,6 @@
       </c>
       <c r="E326" s="1" t="n">
         <v>108.6</v>
-      </c>
-      <c r="F326" s="1" t="n">
-        <v>1.47108717809681</v>
-      </c>
-      <c r="G326" s="1" t="n">
-        <v>0.0344746082171383</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7987,7 +6025,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C327" s="1" t="n">
         <v>10</v>
@@ -7997,12 +6035,6 @@
       </c>
       <c r="E327" s="1" t="n">
         <v>61.57</v>
-      </c>
-      <c r="F327" s="1" t="n">
-        <v>1.29525843894017</v>
-      </c>
-      <c r="G327" s="1" t="n">
-        <v>0.0303540999386414</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8011,7 +6043,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C328" s="1" t="n">
         <v>10</v>
@@ -8021,12 +6053,6 @@
       </c>
       <c r="E328" s="1" t="n">
         <v>60.3</v>
-      </c>
-      <c r="F328" s="1" t="n">
-        <v>1.07924278052181</v>
-      </c>
-      <c r="G328" s="1" t="n">
-        <v>0.0252918199435328</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8035,7 +6061,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C329" s="1" t="n">
         <v>10</v>
@@ -8045,12 +6071,6 @@
       </c>
       <c r="E329" s="1" t="n">
         <v>118</v>
-      </c>
-      <c r="F329" s="1" t="n">
-        <v>1.58586375793476</v>
-      </c>
-      <c r="G329" s="1" t="n">
-        <v>0.0371643724142103</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8059,7 +6079,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C330" s="1" t="n">
         <v>10</v>
@@ -8069,12 +6089,6 @@
       </c>
       <c r="E330" s="1" t="n">
         <v>80.57</v>
-      </c>
-      <c r="F330" s="1" t="n">
-        <v>1.53058790985231</v>
-      </c>
-      <c r="G330" s="1" t="n">
-        <v>0.0358689949308868</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8083,7 +6097,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C331" s="1" t="n">
         <v>10</v>
@@ -8093,12 +6107,6 @@
       </c>
       <c r="E331" s="1" t="n">
         <v>103.9</v>
-      </c>
-      <c r="F331" s="1" t="n">
-        <v>2.13982953611105</v>
-      </c>
-      <c r="G331" s="1" t="n">
-        <v>0.0501464399984286</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8107,7 +6115,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C332" s="1" t="n">
         <v>10</v>
@@ -8117,12 +6125,6 @@
       </c>
       <c r="E332" s="1" t="n">
         <v>151.3</v>
-      </c>
-      <c r="F332" s="1" t="n">
-        <v>1.09985442278818</v>
-      </c>
-      <c r="G332" s="1" t="n">
-        <v>0.0257748492992533</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8131,7 +6133,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C333" s="1" t="n">
         <v>10</v>
@@ -8141,12 +6143,6 @@
       </c>
       <c r="E333" s="1" t="n">
         <v>24.37</v>
-      </c>
-      <c r="F333" s="1" t="n">
-        <v>5.62215706429627</v>
-      </c>
-      <c r="G333" s="1" t="n">
-        <v>0.131754028593726</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8155,7 +6151,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C334" s="1" t="n">
         <v>10</v>
@@ -8165,12 +6161,6 @@
       </c>
       <c r="E334" s="1" t="n">
         <v>64.23</v>
-      </c>
-      <c r="F334" s="1" t="n">
-        <v>2.82337510181523</v>
-      </c>
-      <c r="G334" s="1" t="n">
-        <v>0.0661651817338438</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8179,7 +6169,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C335" s="1" t="n">
         <v>10</v>
@@ -8189,12 +6179,6 @@
       </c>
       <c r="E335" s="1" t="n">
         <v>160.2</v>
-      </c>
-      <c r="F335" s="1" t="n">
-        <v>1.40122747473344</v>
-      </c>
-      <c r="G335" s="1" t="n">
-        <v>0.0328374612557099</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8203,7 +6187,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C336" s="1" t="n">
         <v>10</v>
@@ -8213,12 +6197,6 @@
       </c>
       <c r="E336" s="1" t="n">
         <v>72.13</v>
-      </c>
-      <c r="F336" s="1" t="n">
-        <v>1.89671333970967</v>
-      </c>
-      <c r="G336" s="1" t="n">
-        <v>0.0444490647871092</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8227,7 +6205,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C337" s="1" t="n">
         <v>10</v>
@@ -8237,12 +6215,6 @@
       </c>
       <c r="E337" s="1" t="n">
         <v>37.35</v>
-      </c>
-      <c r="F337" s="1" t="n">
-        <v>5.24841005727776</v>
-      </c>
-      <c r="G337" s="1" t="n">
-        <v>0.122995348733596</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8251,7 +6223,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C338" s="1" t="n">
         <v>10</v>
@@ -8261,12 +6233,6 @@
       </c>
       <c r="E338" s="1" t="n">
         <v>92.71</v>
-      </c>
-      <c r="F338" s="1" t="n">
-        <v>1.47403212817005</v>
-      </c>
-      <c r="G338" s="1" t="n">
-        <v>0.0345436224818982</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8275,7 +6241,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C339" s="1" t="n">
         <v>10</v>
@@ -8285,12 +6251,6 @@
       </c>
       <c r="E339" s="1" t="n">
         <v>186.2</v>
-      </c>
-      <c r="F339" s="1" t="n">
-        <v>1.23205841420131</v>
-      </c>
-      <c r="G339" s="1" t="n">
-        <v>0.0288730210980219</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8299,7 +6259,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C340" s="1" t="n">
         <v>10</v>
@@ -8309,12 +6269,6 @@
       </c>
       <c r="E340" s="1" t="n">
         <v>197</v>
-      </c>
-      <c r="F340" s="1" t="n">
-        <v>12.0593858249788</v>
-      </c>
-      <c r="G340" s="1" t="n">
-        <v>0.282609085202765</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8323,7 +6277,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C341" s="1" t="n">
         <v>10</v>
@@ -8333,12 +6287,6 @@
       </c>
       <c r="E341" s="1" t="n">
         <v>194.7</v>
-      </c>
-      <c r="F341" s="1" t="n">
-        <v>0.596278972599029</v>
-      </c>
-      <c r="G341" s="1" t="n">
-        <v>0.0139736680969946</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8347,7 +6295,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C342" s="1" t="n">
         <v>10</v>
@@ -8357,12 +6305,6 @@
       </c>
       <c r="E342" s="1" t="n">
         <v>74.59</v>
-      </c>
-      <c r="F342" s="1" t="n">
-        <v>2.05370466866789</v>
-      </c>
-      <c r="G342" s="1" t="n">
-        <v>0.0481281224526953</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8371,7 +6313,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C343" s="1" t="n">
         <v>10</v>
@@ -8381,12 +6323,6 @@
       </c>
       <c r="E343" s="1" t="n">
         <v>60.74</v>
-      </c>
-      <c r="F343" s="1" t="n">
-        <v>2.08212924654309</v>
-      </c>
-      <c r="G343" s="1" t="n">
-        <v>0.0487942462559445</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8395,7 +6331,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C344" s="1" t="n">
         <v>11</v>
@@ -8405,12 +6341,6 @@
       </c>
       <c r="E344" s="1" t="n">
         <v>104.6</v>
-      </c>
-      <c r="F344" s="1" t="n">
-        <v>28.5295608608233</v>
-      </c>
-      <c r="G344" s="1" t="n">
-        <v>0.668584056694947</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8419,7 +6349,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C345" s="1" t="n">
         <v>11</v>
@@ -8429,12 +6359,6 @@
       </c>
       <c r="E345" s="1" t="n">
         <v>191</v>
-      </c>
-      <c r="F345" s="1" t="n">
-        <v>0.601904009677267</v>
-      </c>
-      <c r="G345" s="1" t="n">
-        <v>0.014105489618089</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8443,7 +6367,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C346" s="1" t="n">
         <v>11</v>
@@ -8453,12 +6377,6 @@
       </c>
       <c r="E346" s="1" t="n">
         <v>29.76</v>
-      </c>
-      <c r="F346" s="1" t="n">
-        <v>4.01312617467937</v>
-      </c>
-      <c r="G346" s="1" t="n">
-        <v>0.0940467394848774</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8467,7 +6385,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C347" s="1" t="n">
         <v>11</v>
@@ -8477,12 +6395,6 @@
       </c>
       <c r="E347" s="1" t="n">
         <v>77.13</v>
-      </c>
-      <c r="F347" s="1" t="n">
-        <v>2.63046647876088</v>
-      </c>
-      <c r="G347" s="1" t="n">
-        <v>0.0616444100892224</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8491,7 +6403,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C348" s="1" t="n">
         <v>11</v>
@@ -8501,12 +6413,6 @@
       </c>
       <c r="E348" s="1" t="n">
         <v>92.28</v>
-      </c>
-      <c r="F348" s="1" t="n">
-        <v>3.16225698037379</v>
-      </c>
-      <c r="G348" s="1" t="n">
-        <v>0.0741068048878901</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8515,7 +6421,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C349" s="1" t="n">
         <v>11</v>
@@ -8525,12 +6431,6 @@
       </c>
       <c r="E349" s="1" t="n">
         <v>46.65</v>
-      </c>
-      <c r="F349" s="1" t="n">
-        <v>2.9450533409291</v>
-      </c>
-      <c r="G349" s="1" t="n">
-        <v>0.0690166848156863</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8539,7 +6439,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C350" s="1" t="n">
         <v>11</v>
@@ -8549,12 +6449,6 @@
       </c>
       <c r="E350" s="1" t="n">
         <v>82.04</v>
-      </c>
-      <c r="F350" s="1" t="n">
-        <v>12.1253374496952</v>
-      </c>
-      <c r="G350" s="1" t="n">
-        <v>0.284154647190682</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8563,7 +6457,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C351" s="1" t="n">
         <v>11</v>
@@ -8573,12 +6467,6 @@
       </c>
       <c r="E351" s="1" t="n">
         <v>79.15</v>
-      </c>
-      <c r="F351" s="1" t="n">
-        <v>2.45138181745125</v>
-      </c>
-      <c r="G351" s="1" t="n">
-        <v>0.0574475999828792</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8587,7 +6475,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C352" s="1" t="n">
         <v>12</v>
@@ -8597,12 +6485,6 @@
       </c>
       <c r="E352" s="1" t="n">
         <v>79.16</v>
-      </c>
-      <c r="F352" s="1" t="n">
-        <v>2.39244147186227</v>
-      </c>
-      <c r="G352" s="1" t="n">
-        <v>0.0560663457971202</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8611,7 +6493,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C353" s="1" t="n">
         <v>12</v>
@@ -8621,12 +6503,6 @@
       </c>
       <c r="E353" s="1" t="n">
         <v>37.7</v>
-      </c>
-      <c r="F353" s="1" t="n">
-        <v>158.260670192356</v>
-      </c>
-      <c r="G353" s="1" t="n">
-        <v>3.70880440146434</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8635,7 +6511,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C354" s="1" t="n">
         <v>12</v>
@@ -8645,12 +6521,6 @@
       </c>
       <c r="E354" s="1" t="n">
         <v>46.92</v>
-      </c>
-      <c r="F354" s="1" t="n">
-        <v>32.6700593289344</v>
-      </c>
-      <c r="G354" s="1" t="n">
-        <v>0.765615738186767</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8659,7 +6529,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C355" s="1" t="n">
         <v>12</v>
@@ -8669,12 +6539,6 @@
       </c>
       <c r="E355" s="1" t="n">
         <v>64.47</v>
-      </c>
-      <c r="F355" s="1" t="n">
-        <v>73.1654176286765</v>
-      </c>
-      <c r="G355" s="1" t="n">
-        <v>1.71461565660246</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8683,7 +6547,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C356" s="1" t="n">
         <v>12</v>
@@ -8693,12 +6557,6 @@
       </c>
       <c r="E356" s="1" t="n">
         <v>134.2</v>
-      </c>
-      <c r="F356" s="1" t="n">
-        <v>16.9891909471645</v>
-      </c>
-      <c r="G356" s="1" t="n">
-        <v>0.39813799654442</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8707,7 +6565,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C357" s="1" t="n">
         <v>12</v>
@@ -8717,12 +6575,6 @@
       </c>
       <c r="E357" s="1" t="n">
         <v>139.9</v>
-      </c>
-      <c r="F357" s="1" t="n">
-        <v>58.0094762922342</v>
-      </c>
-      <c r="G357" s="1" t="n">
-        <v>1.35943946615279</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8731,7 +6583,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C358" s="1" t="n">
         <v>12</v>
@@ -8741,12 +6593,6 @@
       </c>
       <c r="E358" s="1" t="n">
         <v>50.34</v>
-      </c>
-      <c r="F358" s="1" t="n">
-        <v>82.50142539913</v>
-      </c>
-      <c r="G358" s="1" t="n">
-        <v>1.93340296913613</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8755,7 +6601,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C359" s="1" t="n">
         <v>12</v>
@@ -8765,12 +6611,6 @@
       </c>
       <c r="E359" s="1" t="n">
         <v>73.16</v>
-      </c>
-      <c r="F359" s="1" t="n">
-        <v>31.7998708892905</v>
-      </c>
-      <c r="G359" s="1" t="n">
-        <v>0.745223061275112</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8779,7 +6619,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C360" s="1" t="n">
         <v>13</v>
@@ -8789,12 +6629,6 @@
       </c>
       <c r="E360" s="1" t="n">
         <v>59.83</v>
-      </c>
-      <c r="F360" s="1" t="n">
-        <v>58.6620199194481</v>
-      </c>
-      <c r="G360" s="1" t="n">
-        <v>1.37473168419924</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8803,7 +6637,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C361" s="1" t="n">
         <v>13</v>
@@ -8813,12 +6647,6 @@
       </c>
       <c r="E361" s="1" t="n">
         <v>22.45</v>
-      </c>
-      <c r="F361" s="1" t="n">
-        <v>106.102559540568</v>
-      </c>
-      <c r="G361" s="1" t="n">
-        <v>2.48649041705939</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8827,7 +6655,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C362" s="1" t="n">
         <v>13</v>
@@ -8837,12 +6665,6 @@
       </c>
       <c r="E362" s="1" t="n">
         <v>55.42</v>
-      </c>
-      <c r="F362" s="1" t="n">
-        <v>201.234246047572</v>
-      </c>
-      <c r="G362" s="1" t="n">
-        <v>4.71588080954962</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8851,7 +6673,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C363" s="1" t="n">
         <v>13</v>
@@ -8861,12 +6683,6 @@
       </c>
       <c r="E363" s="1" t="n">
         <v>32.89</v>
-      </c>
-      <c r="F363" s="1" t="n">
-        <v>102.700725328836</v>
-      </c>
-      <c r="G363" s="1" t="n">
-        <v>2.40676917183663</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8875,7 +6691,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C364" s="1" t="n">
         <v>13</v>
@@ -8885,12 +6701,6 @@
       </c>
       <c r="E364" s="1" t="n">
         <v>32.71</v>
-      </c>
-      <c r="F364" s="1" t="n">
-        <v>7.8008154075842</v>
-      </c>
-      <c r="G364" s="1" t="n">
-        <v>0.182810413247299</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8899,7 +6709,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C365" s="1" t="n">
         <v>13</v>
@@ -8909,12 +6719,6 @@
       </c>
       <c r="E365" s="1" t="n">
         <v>35.35</v>
-      </c>
-      <c r="F365" s="1" t="n">
-        <v>284.572233984335</v>
-      </c>
-      <c r="G365" s="1" t="n">
-        <v>6.66888843989376</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8923,7 +6727,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C366" s="1" t="n">
         <v>13</v>
@@ -8933,12 +6737,6 @@
       </c>
       <c r="E366" s="1" t="n">
         <v>52.29</v>
-      </c>
-      <c r="F366" s="1" t="n">
-        <v>64.501579191268</v>
-      </c>
-      <c r="G366" s="1" t="n">
-        <v>1.51158048626493</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8947,7 +6745,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C367" s="1" t="n">
         <v>14</v>
@@ -8957,12 +6755,6 @@
       </c>
       <c r="E367" s="1" t="n">
         <v>61.29</v>
-      </c>
-      <c r="F367" s="1" t="n">
-        <v>14.3095424633303</v>
-      </c>
-      <c r="G367" s="1" t="n">
-        <v>0.335341016858045</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8971,7 +6763,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C368" s="1" t="n">
         <v>14</v>
@@ -8981,12 +6773,6 @@
       </c>
       <c r="E368" s="1" t="n">
         <v>41.74</v>
-      </c>
-      <c r="F368" s="1" t="n">
-        <v>11.6548833358509</v>
-      </c>
-      <c r="G368" s="1" t="n">
-        <v>0.273129657305375</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8995,7 +6781,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C369" s="1" t="n">
         <v>14</v>
@@ -9005,12 +6791,6 @@
       </c>
       <c r="E369" s="1" t="n">
         <v>27.85</v>
-      </c>
-      <c r="F369" s="1" t="n">
-        <v>108.529666201511</v>
-      </c>
-      <c r="G369" s="1" t="n">
-        <v>2.54336913402672</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9019,7 +6799,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C370" s="1" t="n">
         <v>14</v>
@@ -9029,12 +6809,6 @@
       </c>
       <c r="E370" s="1" t="n">
         <v>38.65</v>
-      </c>
-      <c r="F370" s="1" t="n">
-        <v>298.927853657631</v>
-      </c>
-      <c r="G370" s="1" t="n">
-        <v>7.00530926615058</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9043,7 +6817,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C371" s="1" t="n">
         <v>14</v>
@@ -9053,12 +6827,6 @@
       </c>
       <c r="E371" s="1" t="n">
         <v>43.22</v>
-      </c>
-      <c r="F371" s="1" t="n">
-        <v>326.719326139036</v>
-      </c>
-      <c r="G371" s="1" t="n">
-        <v>7.65659638212784</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9067,7 +6835,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C372" s="1" t="n">
         <v>14</v>
@@ -9077,12 +6845,6 @@
       </c>
       <c r="E372" s="1" t="n">
         <v>26.18</v>
-      </c>
-      <c r="F372" s="1" t="n">
-        <v>122.09699150763</v>
-      </c>
-      <c r="G372" s="1" t="n">
-        <v>2.86131645315706</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9091,7 +6853,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C373" s="1" t="n">
         <v>14</v>
@@ -9101,12 +6863,6 @@
       </c>
       <c r="E373" s="1" t="n">
         <v>20.66</v>
-      </c>
-      <c r="F373" s="1" t="n">
-        <v>12.0183999108546</v>
-      </c>
-      <c r="G373" s="1" t="n">
-        <v>0.281648589215244</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9115,7 +6871,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C374" s="1" t="n">
         <v>14</v>
@@ -9125,12 +6881,6 @@
       </c>
       <c r="E374" s="1" t="n">
         <v>56.2</v>
-      </c>
-      <c r="F374" s="1" t="n">
-        <v>226.721507035341</v>
-      </c>
-      <c r="G374" s="1" t="n">
-        <v>5.31316923008908</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9139,7 +6889,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C375" s="1" t="n">
         <v>14</v>
@@ -9149,12 +6899,6 @@
       </c>
       <c r="E375" s="1" t="n">
         <v>39.23</v>
-      </c>
-      <c r="F375" s="1" t="n">
-        <v>153.543408436599</v>
-      </c>
-      <c r="G375" s="1" t="n">
-        <v>3.59825639770986</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9163,7 +6907,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C376" s="1" t="n">
         <v>14</v>
@@ -9173,12 +6917,6 @@
       </c>
       <c r="E376" s="1" t="n">
         <v>39.71</v>
-      </c>
-      <c r="F376" s="1" t="n">
-        <v>510.888190923261</v>
-      </c>
-      <c r="G376" s="1" t="n">
-        <v>11.9725536916364</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9187,7 +6925,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C377" s="1" t="n">
         <v>14</v>
@@ -9197,12 +6935,6 @@
       </c>
       <c r="E377" s="1" t="n">
         <v>25.78</v>
-      </c>
-      <c r="F377" s="1" t="n">
-        <v>145.168005874132</v>
-      </c>
-      <c r="G377" s="1" t="n">
-        <v>3.40198065939814</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9211,7 +6943,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C378" s="1" t="n">
         <v>14</v>
@@ -9221,12 +6953,6 @@
       </c>
       <c r="E378" s="1" t="n">
         <v>30.93</v>
-      </c>
-      <c r="F378" s="1" t="n">
-        <v>158.368849755328</v>
-      </c>
-      <c r="G378" s="1" t="n">
-        <v>3.7113395660053</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9235,7 +6961,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C379" s="1" t="n">
         <v>14</v>
@@ -9245,12 +6971,6 @@
       </c>
       <c r="E379" s="1" t="n">
         <v>57.4</v>
-      </c>
-      <c r="F379" s="1" t="n">
-        <v>124.896418200032</v>
-      </c>
-      <c r="G379" s="1" t="n">
-        <v>2.92692040912249</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9259,7 +6979,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C380" s="1" t="n">
         <v>14</v>
@@ -9269,12 +6989,6 @@
       </c>
       <c r="E380" s="1" t="n">
         <v>43.45</v>
-      </c>
-      <c r="F380" s="1" t="n">
-        <v>70.9297359089594</v>
-      </c>
-      <c r="G380" s="1" t="n">
-        <v>1.66222294151866</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9283,7 +6997,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C381" s="1" t="n">
         <v>14</v>
@@ -9293,12 +7007,6 @@
       </c>
       <c r="E381" s="1" t="n">
         <v>103.1</v>
-      </c>
-      <c r="F381" s="1" t="n">
-        <v>34.2760507857928</v>
-      </c>
-      <c r="G381" s="1" t="n">
-        <v>0.803251798849665</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9307,7 +7015,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C382" s="1" t="n">
         <v>14</v>
@@ -9317,12 +7025,6 @@
       </c>
       <c r="E382" s="1" t="n">
         <v>34.41</v>
-      </c>
-      <c r="F382" s="1" t="n">
-        <v>222.995161221397</v>
-      </c>
-      <c r="G382" s="1" t="n">
-        <v>5.22584312601447</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9331,7 +7033,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C383" s="1" t="n">
         <v>15</v>
@@ -9341,12 +7043,6 @@
       </c>
       <c r="E383" s="1" t="n">
         <v>37.92</v>
-      </c>
-      <c r="F383" s="1" t="n">
-        <v>209.950109726161</v>
-      </c>
-      <c r="G383" s="1" t="n">
-        <v>4.92013518010437</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9355,7 +7051,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C384" s="1" t="n">
         <v>15</v>
@@ -9365,12 +7061,6 @@
       </c>
       <c r="E384" s="1" t="n">
         <v>32.35</v>
-      </c>
-      <c r="F384" s="1" t="n">
-        <v>83.5027600613938</v>
-      </c>
-      <c r="G384" s="1" t="n">
-        <v>1.95686902926484</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9379,7 +7069,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C385" s="1" t="n">
         <v>15</v>
@@ -9389,12 +7079,6 @@
       </c>
       <c r="E385" s="1" t="n">
         <v>18.06</v>
-      </c>
-      <c r="F385" s="1" t="n">
-        <v>527.544675910603</v>
-      </c>
-      <c r="G385" s="1" t="n">
-        <v>12.3628947963398</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9403,7 +7087,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C386" s="1" t="n">
         <v>15</v>
@@ -9413,12 +7097,6 @@
       </c>
       <c r="E386" s="1" t="n">
         <v>21.76</v>
-      </c>
-      <c r="F386" s="1" t="n">
-        <v>149.912803068644</v>
-      </c>
-      <c r="G386" s="1" t="n">
-        <v>3.51317395017388</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9427,7 +7105,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C387" s="1" t="n">
         <v>15</v>
@@ -9437,12 +7115,6 @@
       </c>
       <c r="E387" s="1" t="n">
         <v>38.46</v>
-      </c>
-      <c r="F387" s="1" t="n">
-        <v>140.112635072245</v>
-      </c>
-      <c r="G387" s="1" t="n">
-        <v>3.28350914364957</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9451,7 +7123,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C388" s="1" t="n">
         <v>15</v>
@@ -9461,12 +7133,6 @@
       </c>
       <c r="E388" s="1" t="n">
         <v>50.55</v>
-      </c>
-      <c r="F388" s="1" t="n">
-        <v>220.501434537133</v>
-      </c>
-      <c r="G388" s="1" t="n">
-        <v>5.16740318328324</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9475,7 +7141,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C389" s="1" t="n">
         <v>15</v>
@@ -9485,12 +7151,6 @@
       </c>
       <c r="E389" s="1" t="n">
         <v>35.03</v>
-      </c>
-      <c r="F389" s="1" t="n">
-        <v>376.390418159991</v>
-      </c>
-      <c r="G389" s="1" t="n">
-        <v>8.82062762557544</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9499,7 +7159,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C390" s="1" t="n">
         <v>15</v>
@@ -9509,12 +7169,6 @@
       </c>
       <c r="E390" s="1" t="n">
         <v>51.45</v>
-      </c>
-      <c r="F390" s="1" t="n">
-        <v>79.7647273621528</v>
-      </c>
-      <c r="G390" s="1" t="n">
-        <v>1.86926904557393</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9523,7 +7177,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C391" s="1" t="n">
         <v>15</v>
@@ -9533,12 +7187,6 @@
       </c>
       <c r="E391" s="1" t="n">
         <v>41.95</v>
-      </c>
-      <c r="F391" s="1" t="n">
-        <v>269.072127051578</v>
-      </c>
-      <c r="G391" s="1" t="n">
-        <v>6.30564680351306</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9547,7 +7195,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C392" s="1" t="n">
         <v>15</v>
@@ -9557,12 +7205,6 @@
       </c>
       <c r="E392" s="1" t="n">
         <v>13.04</v>
-      </c>
-      <c r="F392" s="1" t="n">
-        <v>296.481887007424</v>
-      </c>
-      <c r="G392" s="1" t="n">
-        <v>6.94798856943485</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9571,7 +7213,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C393" s="1" t="n">
         <v>15</v>
@@ -9581,12 +7223,6 @@
       </c>
       <c r="E393" s="1" t="n">
         <v>30.09</v>
-      </c>
-      <c r="F393" s="1" t="n">
-        <v>72.2363402406896</v>
-      </c>
-      <c r="G393" s="1" t="n">
-        <v>1.69284292998833</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9595,7 +7231,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C394" s="1" t="n">
         <v>15</v>
@@ -9605,12 +7241,6 @@
       </c>
       <c r="E394" s="1" t="n">
         <v>49.41</v>
-      </c>
-      <c r="F394" s="1" t="n">
-        <v>187.57523893834</v>
-      </c>
-      <c r="G394" s="1" t="n">
-        <v>4.39578494729413</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9619,7 +7249,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C395" s="1" t="n">
         <v>16</v>
@@ -9629,12 +7259,6 @@
       </c>
       <c r="E395" s="1" t="n">
         <v>24.62</v>
-      </c>
-      <c r="F395" s="1" t="n">
-        <v>263.255293213306</v>
-      </c>
-      <c r="G395" s="1" t="n">
-        <v>6.16933056704225</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9643,7 +7267,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C396" s="1" t="n">
         <v>16</v>
@@ -9653,12 +7277,6 @@
       </c>
       <c r="E396" s="1" t="n">
         <v>21.12</v>
-      </c>
-      <c r="F396" s="1" t="n">
-        <v>192.748049154147</v>
-      </c>
-      <c r="G396" s="1" t="n">
-        <v>4.51700863017762</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9667,7 +7285,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C397" s="1" t="n">
         <v>16</v>
@@ -9677,12 +7295,6 @@
       </c>
       <c r="E397" s="1" t="n">
         <v>9.93</v>
-      </c>
-      <c r="F397" s="1" t="n">
-        <v>495.427711986501</v>
-      </c>
-      <c r="G397" s="1" t="n">
-        <v>11.6102407287271</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9691,7 +7303,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C398" s="1" t="n">
         <v>16</v>
@@ -9701,12 +7313,6 @@
       </c>
       <c r="E398" s="1" t="n">
         <v>30.52</v>
-      </c>
-      <c r="F398" s="1" t="n">
-        <v>339.710485423166</v>
-      </c>
-      <c r="G398" s="1" t="n">
-        <v>7.96104137578638</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9715,7 +7321,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C399" s="1" t="n">
         <v>16</v>
@@ -9725,12 +7331,6 @@
       </c>
       <c r="E399" s="1" t="n">
         <v>37.58</v>
-      </c>
-      <c r="F399" s="1" t="n">
-        <v>567.377165376364</v>
-      </c>
-      <c r="G399" s="1" t="n">
-        <v>13.2963605277331</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9739,7 +7339,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C400" s="1" t="n">
         <v>16</v>
@@ -9749,12 +7349,6 @@
       </c>
       <c r="E400" s="1" t="n">
         <v>33.82</v>
-      </c>
-      <c r="F400" s="1" t="n">
-        <v>201.628883513023</v>
-      </c>
-      <c r="G400" s="1" t="n">
-        <v>4.72512905276171</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9763,7 +7357,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C401" s="1" t="n">
         <v>16</v>
@@ -9773,12 +7367,6 @@
       </c>
       <c r="E401" s="1" t="n">
         <v>58.34</v>
-      </c>
-      <c r="F401" s="1" t="n">
-        <v>470.649076449602</v>
-      </c>
-      <c r="G401" s="1" t="n">
-        <v>11.0295587915798</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9787,7 +7375,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C402" s="1" t="n">
         <v>16</v>
@@ -9797,12 +7385,6 @@
       </c>
       <c r="E402" s="1" t="n">
         <v>29.96</v>
-      </c>
-      <c r="F402" s="1" t="n">
-        <v>198.637947722163</v>
-      </c>
-      <c r="G402" s="1" t="n">
-        <v>4.65503712270634</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9811,7 +7393,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C403" s="1" t="n">
         <v>16</v>
@@ -9821,12 +7403,6 @@
       </c>
       <c r="E403" s="1" t="n">
         <v>46.53</v>
-      </c>
-      <c r="F403" s="1" t="n">
-        <v>428.517827560355</v>
-      </c>
-      <c r="G403" s="1" t="n">
-        <v>10.0422221328275</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9835,7 +7411,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C404" s="1" t="n">
         <v>16</v>
@@ -9845,12 +7421,6 @@
       </c>
       <c r="E404" s="1" t="n">
         <v>83.43</v>
-      </c>
-      <c r="F404" s="1" t="n">
-        <v>131.751820334278</v>
-      </c>
-      <c r="G404" s="1" t="n">
-        <v>3.08757526783373</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9859,7 +7429,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C405" s="1" t="n">
         <v>16</v>
@@ -9869,12 +7439,6 @@
       </c>
       <c r="E405" s="1" t="n">
         <v>17.14</v>
-      </c>
-      <c r="F405" s="1" t="n">
-        <v>259.419648413057</v>
-      </c>
-      <c r="G405" s="1" t="n">
-        <v>6.07944306498426</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9883,7 +7447,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C406" s="1" t="n">
         <v>16</v>
@@ -9893,12 +7457,6 @@
       </c>
       <c r="E406" s="1" t="n">
         <v>37.5</v>
-      </c>
-      <c r="F406" s="1" t="n">
-        <v>502.061168286388</v>
-      </c>
-      <c r="G406" s="1" t="n">
-        <v>11.7656943350593</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9907,7 +7465,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C407" s="1" t="n">
         <v>16</v>
@@ -9917,12 +7475,6 @@
       </c>
       <c r="E407" s="1" t="n">
         <v>41.47</v>
-      </c>
-      <c r="F407" s="1" t="n">
-        <v>205.785114060271</v>
-      </c>
-      <c r="G407" s="1" t="n">
-        <v>4.8225294121081</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9931,7 +7483,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C408" s="1" t="n">
         <v>17</v>
@@ -9941,12 +7493,6 @@
       </c>
       <c r="E408" s="1" t="n">
         <v>59.25</v>
-      </c>
-      <c r="F408" s="1" t="n">
-        <v>73.2440128199055</v>
-      </c>
-      <c r="G408" s="1" t="n">
-        <v>1.716457517823</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9955,7 +7501,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C409" s="1" t="n">
         <v>17</v>
@@ -9965,12 +7511,6 @@
       </c>
       <c r="E409" s="1" t="n">
         <v>49.45</v>
-      </c>
-      <c r="F409" s="1" t="n">
-        <v>486.828311070955</v>
-      </c>
-      <c r="G409" s="1" t="n">
-        <v>11.4087156377063</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9979,7 +7519,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C410" s="1" t="n">
         <v>17</v>
@@ -9989,12 +7529,6 @@
       </c>
       <c r="E410" s="1" t="n">
         <v>28.06</v>
-      </c>
-      <c r="F410" s="1" t="n">
-        <v>189.011313233124</v>
-      </c>
-      <c r="G410" s="1" t="n">
-        <v>4.42943903620234</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10003,7 +7537,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C411" s="1" t="n">
         <v>17</v>
@@ -10013,12 +7547,6 @@
       </c>
       <c r="E411" s="1" t="n">
         <v>41.95</v>
-      </c>
-      <c r="F411" s="1" t="n">
-        <v>287.397920388983</v>
-      </c>
-      <c r="G411" s="1" t="n">
-        <v>6.73510778650703</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10027,7 +7555,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C412" s="1" t="n">
         <v>17</v>
@@ -10037,12 +7565,6 @@
       </c>
       <c r="E412" s="1" t="n">
         <v>61.09</v>
-      </c>
-      <c r="F412" s="1" t="n">
-        <v>217.337999323054</v>
-      </c>
-      <c r="G412" s="1" t="n">
-        <v>5.09326876674461</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10051,7 +7573,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C413" s="1" t="n">
         <v>18</v>
@@ -10061,12 +7583,6 @@
       </c>
       <c r="E413" s="1" t="n">
         <v>44.39</v>
-      </c>
-      <c r="F413" s="1" t="n">
-        <v>257.029132091326</v>
-      </c>
-      <c r="G413" s="1" t="n">
-        <v>6.02342183466195</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10075,7 +7591,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C414" s="1" t="n">
         <v>18</v>
@@ -10085,12 +7601,6 @@
       </c>
       <c r="E414" s="1" t="n">
         <v>29.94</v>
-      </c>
-      <c r="F414" s="1" t="n">
-        <v>299.036399574932</v>
-      </c>
-      <c r="G414" s="1" t="n">
-        <v>7.00785301612558</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10099,7 +7609,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C415" s="1" t="n">
         <v>18</v>
@@ -10109,12 +7619,6 @@
       </c>
       <c r="E415" s="1" t="n">
         <v>40.15</v>
-      </c>
-      <c r="F415" s="1" t="n">
-        <v>164.750680199567</v>
-      </c>
-      <c r="G415" s="1" t="n">
-        <v>3.86089637511159</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10123,7 +7627,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C416" s="1" t="n">
         <v>18</v>
@@ -10133,12 +7637,6 @@
       </c>
       <c r="E416" s="1" t="n">
         <v>31.16</v>
-      </c>
-      <c r="F416" s="1" t="n">
-        <v>50.8602151185934</v>
-      </c>
-      <c r="G416" s="1" t="n">
-        <v>1.19189808473573</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10147,7 +7645,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C417" s="1" t="n">
         <v>18</v>
@@ -10157,12 +7655,6 @@
       </c>
       <c r="E417" s="1" t="n">
         <v>35.9</v>
-      </c>
-      <c r="F417" s="1" t="n">
-        <v>262.152189190672</v>
-      </c>
-      <c r="G417" s="1" t="n">
-        <v>6.14347956407705</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10171,7 +7663,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C418" s="1" t="n">
         <v>19</v>
@@ -10181,12 +7673,6 @@
       </c>
       <c r="E418" s="1" t="n">
         <v>41.04</v>
-      </c>
-      <c r="F418" s="1" t="n">
-        <v>281.253858877273</v>
-      </c>
-      <c r="G418" s="1" t="n">
-        <v>6.59112304064567</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10195,7 +7681,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C419" s="1" t="n">
         <v>19</v>
@@ -10205,12 +7691,6 @@
       </c>
       <c r="E419" s="1" t="n">
         <v>37.09</v>
-      </c>
-      <c r="F419" s="1" t="n">
-        <v>453.50102328354</v>
-      </c>
-      <c r="G419" s="1" t="n">
-        <v>10.6276978934708</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10219,7 +7699,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C420" s="1" t="n">
         <v>19</v>
@@ -10229,12 +7709,6 @@
       </c>
       <c r="E420" s="1" t="n">
         <v>25.19</v>
-      </c>
-      <c r="F420" s="1" t="n">
-        <v>252.61379505375</v>
-      </c>
-      <c r="G420" s="1" t="n">
-        <v>5.91994937104224</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10243,7 +7717,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C421" s="1" t="n">
         <v>19</v>
@@ -10253,12 +7727,6 @@
       </c>
       <c r="E421" s="1" t="n">
         <v>59.9</v>
-      </c>
-      <c r="F421" s="1" t="n">
-        <v>331.818570917137</v>
-      </c>
-      <c r="G421" s="1" t="n">
-        <v>7.77609607497118</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10267,7 +7735,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C422" s="1" t="n">
         <v>19</v>
@@ -10277,12 +7745,6 @@
       </c>
       <c r="E422" s="1" t="n">
         <v>39.9</v>
-      </c>
-      <c r="F422" s="1" t="n">
-        <v>398.313122429061</v>
-      </c>
-      <c r="G422" s="1" t="n">
-        <v>9.33438143431583</v>
       </c>
     </row>
   </sheetData>
